--- a/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
+++ b/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,13 @@
     <t>Pumped Storage Capacity (MW)</t>
   </si>
   <si>
-    <t>Inventario Nacional de Energías Renovables</t>
+    <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Inventario actual </t>
+    <t>none</t>
   </si>
   <si>
-    <t>http://inere.energia.gob.mx/version4.5/</t>
+    <t>Mexico does not have significant pumped hydro storage</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -159,8 +159,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -168,14 +169,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="6"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
     <cellStyle name="Footnotes: top row" xfId="7"/>
     <cellStyle name="Header: bottom row" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="8"/>
     <cellStyle name="Parent row" xfId="5"/>
     <cellStyle name="Table title" xfId="4"/>
   </cellStyles>
@@ -184,9 +187,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -479,11 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -495,21 +495,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2015</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -524,69 +527,126 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="O1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="P1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="Q1">
-        <v>2030</v>
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -636,6 +696,63 @@
         <v>0</v>
       </c>
       <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
+++ b/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
@@ -1,21 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\elec\BPHC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2701B040-E8F6-4B5E-87A7-9ED41B286E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="1290" yWindow="900" windowWidth="20265" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BPHC" sheetId="3" r:id="rId2"/>
+    <sheet name="AEO Table 9" sheetId="4" r:id="rId2"/>
+    <sheet name="BPHC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="gigawatts_to_megawatts">About!$B$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="141">
   <si>
     <t>BPHC BAU Pumped Hydro Capacity</t>
   </si>
@@ -23,26 +43,432 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>Energy Information Administration</t>
+  </si>
+  <si>
+    <t>Table 9, Row "Pumped Storage"</t>
+  </si>
+  <si>
+    <t>9. Electricity Generating Capacity</t>
+  </si>
+  <si>
+    <t>(gigawatts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Net Summer Capacity 1/</t>
+  </si>
+  <si>
+    <t>Electric Power Sector 2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Power Only 3/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Coal 4/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Oil and Natural Gas Steam 4, 5/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Combined Cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Combustion Turbine/Diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Nuclear Power 6/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pumped Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Fuel Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Renewable Sources 7/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Distributed Generation (Natural Gas) 8/</t>
+  </si>
+  <si>
+    <t>- -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Combined Heat and Power 9/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Coal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Oil and Natural Gas Steam 5/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cumulative Planned Additions 10/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Nuclear Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Distributed Generation 8/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cumulative Unplanned Additions 10/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cumulative Retirements 11/</t>
+  </si>
+  <si>
+    <t>Total Electric Power Sector Capacity</t>
+  </si>
+  <si>
+    <t>End-Use Generators 12/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Petroleum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Natural Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Other Gaseous Fuels 13/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Other 14/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cumulative Capacity Additions 10/</t>
+  </si>
+  <si>
+    <t>system load (exclusive of auxiliary power), as demonstrated by tests during summer peak demand.</t>
+  </si>
+  <si>
+    <t>other biomass, solar, and wind power.  Facilities co-firing biomass and coal are classified as coal.</t>
+  </si>
+  <si>
+    <t>(i.e., those that report North American Industry Classification System code 22 or that have a regulatory status).</t>
+  </si>
+  <si>
+    <t>status; and small on-site generating systems in the residential, commercial, and industrial sectors used primarily for own-use generation,</t>
+  </si>
+  <si>
+    <t>but which may also sell some power to the grid.</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Pumped Storage Capacity (MW)</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Mexico does not have significant pumped hydro storage</t>
+    <t>EGC000:ia_CumulativeCap</t>
+  </si>
+  <si>
+    <t>EGC000:ha_Total</t>
+  </si>
+  <si>
+    <t>EGC000:ha_Other</t>
+  </si>
+  <si>
+    <t>EGC000:ha_RenewableSour</t>
+  </si>
+  <si>
+    <t>EGC000:ha_OtherGaseousF</t>
+  </si>
+  <si>
+    <t>EGC000:ha_NaturalGas</t>
+  </si>
+  <si>
+    <t>EGC000:ha_Petroleum</t>
+  </si>
+  <si>
+    <t>EGC000:ha_Coal</t>
+  </si>
+  <si>
+    <t>EGC000:ga_TotalElectric</t>
+  </si>
+  <si>
+    <t>EGC000:fa_Total</t>
+  </si>
+  <si>
+    <t>EGC000:fa_RenewableSour</t>
+  </si>
+  <si>
+    <t>EGC000:fa_FuelCells</t>
+  </si>
+  <si>
+    <t>EGC000:fa_PumpedStorage</t>
+  </si>
+  <si>
+    <t>EGC000:fa_NuclearPower</t>
+  </si>
+  <si>
+    <t>EGC000:fa_CombustionTur</t>
+  </si>
+  <si>
+    <t>EGC000:fa_CombinedCycle</t>
+  </si>
+  <si>
+    <t>EGC000:fa_OtherFossilSt</t>
+  </si>
+  <si>
+    <t>EGC000:fa_CoalSteam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cumulative Electric Power Sector Additions 10</t>
+  </si>
+  <si>
+    <t>EGC000:ea_CumulativeEle</t>
+  </si>
+  <si>
+    <t>EGC000:ea_Total</t>
+  </si>
+  <si>
+    <t>EGC000:ea_DistributedGe</t>
+  </si>
+  <si>
+    <t>EGC000:ea_RenewableSour</t>
+  </si>
+  <si>
+    <t>EGC000:ea_FuelCells</t>
+  </si>
+  <si>
+    <t>EGC000:ea_PumpedStorage</t>
+  </si>
+  <si>
+    <t>EGC000:ea_NuclearPower</t>
+  </si>
+  <si>
+    <t>EGC000:ea_CombustionTur</t>
+  </si>
+  <si>
+    <t>EGC000:ea_CombinedCycle</t>
+  </si>
+  <si>
+    <t>EGC000:ea_OtherFossilSt</t>
+  </si>
+  <si>
+    <t>EGC000:ea_CoalSteam</t>
+  </si>
+  <si>
+    <t>EGC000:da_Total</t>
+  </si>
+  <si>
+    <t>EGC000:da_DistributedGe</t>
+  </si>
+  <si>
+    <t>EGC000:da_RenewableSour</t>
+  </si>
+  <si>
+    <t>EGC000:da_FuelCells</t>
+  </si>
+  <si>
+    <t>EGC000:da_PumpedStorage</t>
+  </si>
+  <si>
+    <t>EGC000:da_NuclearPower</t>
+  </si>
+  <si>
+    <t>EGC000:da_CombustionTur</t>
+  </si>
+  <si>
+    <t>EGC000:da_CombinedCycle</t>
+  </si>
+  <si>
+    <t>EGC000:da_OtherFossilSt</t>
+  </si>
+  <si>
+    <t>EGC000:da_CoalSteam</t>
+  </si>
+  <si>
+    <t>EGC000:ca_Total</t>
+  </si>
+  <si>
+    <t>EGC000:ca_RenewableSour</t>
+  </si>
+  <si>
+    <t>EGC000:ca_CombustionTur</t>
+  </si>
+  <si>
+    <t>EGC000:ca_CombinedCycle</t>
+  </si>
+  <si>
+    <t>EGC000:ca_OtherFossilSt</t>
+  </si>
+  <si>
+    <t>EGC000:ca_CoalSteam</t>
+  </si>
+  <si>
+    <t>EGC000:ba_Total</t>
+  </si>
+  <si>
+    <t>EGC000:ba_DistributedGe</t>
+  </si>
+  <si>
+    <t>EGC000:ba_RenewableSour</t>
+  </si>
+  <si>
+    <t>EGC000:ba_FuelCells</t>
+  </si>
+  <si>
+    <t>EGC000:ba_PumpedStorage</t>
+  </si>
+  <si>
+    <t>EGC000:ba_NuclearPower</t>
+  </si>
+  <si>
+    <t>EGC000:ba_CombustionTur</t>
+  </si>
+  <si>
+    <t>EGC000:ba_CombinedCycle</t>
+  </si>
+  <si>
+    <t>EGC000:ba_OtherFossilSt</t>
+  </si>
+  <si>
+    <t>EGC000:ba_CoalSteam</t>
+  </si>
+  <si>
+    <t>EGC000</t>
+  </si>
+  <si>
+    <t>Release Date</t>
+  </si>
+  <si>
+    <t>Datekey</t>
+  </si>
+  <si>
+    <t>Reference case</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>EGC000:ba_DiurnalStorag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Diurnal Storage</t>
+  </si>
+  <si>
+    <t>EGC000:da_DiurnalStorag</t>
+  </si>
+  <si>
+    <t>EGC000:ea_DiurnalStorag</t>
+  </si>
+  <si>
+    <t>EGC000:fa_DiurnalStorag</t>
+  </si>
+  <si>
+    <t>are not included explicitly as additions or retirements.  No planned conversions are assumed.  The totals reflect any conversions projected by</t>
+  </si>
+  <si>
+    <t>the model.</t>
+  </si>
+  <si>
+    <t>gigawatts to megawatts</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>highogs.d120120a</t>
+  </si>
+  <si>
+    <t>Annual Energy Outlook 2021</t>
+  </si>
+  <si>
+    <t>ref2021</t>
+  </si>
+  <si>
+    <t>d113020a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> January 2021</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Growth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-2050 </t>
+  </si>
+  <si>
+    <t>(percent)</t>
+  </si>
+  <si>
+    <t>1/ Net summer capacity is the steady hourly output that generating equipment is expected to supply to</t>
+  </si>
+  <si>
+    <t>2/ Includes electricity-only and combined heat and power plants that have a regulatory status.</t>
+  </si>
+  <si>
+    <t>3/ Includes plants that only produce electricity and that have a regulatory status.  Includes capacity increases (uprates) at existing units.</t>
+  </si>
+  <si>
+    <t>4/ Total coal and oil and natural gas steam capacity account for the conversion of coal capacity to gas steam capacity, but the conversions</t>
+  </si>
+  <si>
+    <t>5/ Includes oil-, gas-, and dual-fired capacity.</t>
+  </si>
+  <si>
+    <t>6/ Nuclear capacity includes 2.1 gigawatts of uprates.</t>
+  </si>
+  <si>
+    <t>7/ Includes conventional hydroelectric, geothermal, wood, wood waste, all municipal waste, landfill gas,</t>
+  </si>
+  <si>
+    <t>8/ Primarily peak-load capacity fueled by natural gas.</t>
+  </si>
+  <si>
+    <t>9/ Includes combined heat and power plants whose primary business is to sell electricity and heat to the public</t>
+  </si>
+  <si>
+    <t>10/ Cumulative additions after December 31, 2020.</t>
+  </si>
+  <si>
+    <t>11/ Cumulative retirements after December 31, 2020.</t>
+  </si>
+  <si>
+    <t>12/ Includes combined heat and power plants and electricity-only plants in the commercial and industrial sectors that have a non-regulatory</t>
+  </si>
+  <si>
+    <t>13/ Includes refinery gas and still gas.</t>
+  </si>
+  <si>
+    <t>14/ Includes batteries, chemicals, hydrogen, pitch, purchased steam, sulfur, and miscellaneous technologies.</t>
+  </si>
+  <si>
+    <t>- - = Not applicable.</t>
+  </si>
+  <si>
+    <t>Note:  Totals may not equal sum of components due to independent rounding.</t>
+  </si>
+  <si>
+    <t>Sources:  2020:  U.S. Energy Information Administration (EIA), Short-Term Energy Outlook, October 2020 and EIA,</t>
+  </si>
+  <si>
+    <t>AEO2021 National Energy Modeling System run highogs.d120120a. Projections:  EIA, AEO2021 National Energy Modeling System run highogs.d120120a.</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/tables_side.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +512,43 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -161,7 +617,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -170,23 +626,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="6" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="7" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="3"/>
+    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Parent row" xfId="5"/>
-    <cellStyle name="Table title" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,7 +746,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,9 +779,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +831,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,12 +1023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -495,26 +1042,44 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
+      <c r="B4" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
+      <c r="B6" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -523,238 +1088,7636 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AH2837"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="9">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="9">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="9">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="9">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="9">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="9">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="9">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="9">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="9">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="9">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="9">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="9">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="9">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="9">
+        <v>2035</v>
+      </c>
+      <c r="S1" s="9">
+        <v>2036</v>
+      </c>
+      <c r="T1" s="9">
+        <v>2037</v>
+      </c>
+      <c r="U1" s="9">
+        <v>2038</v>
+      </c>
+      <c r="V1" s="9">
+        <v>2039</v>
+      </c>
+      <c r="W1" s="9">
+        <v>2040</v>
+      </c>
+      <c r="X1" s="9">
+        <v>2041</v>
+      </c>
+      <c r="Y1" s="9">
+        <v>2042</v>
+      </c>
+      <c r="Z1" s="9">
+        <v>2043</v>
+      </c>
+      <c r="AA1" s="9">
+        <v>2044</v>
+      </c>
+      <c r="AB1" s="9">
+        <v>2045</v>
+      </c>
+      <c r="AC1" s="9">
+        <v>2046</v>
+      </c>
+      <c r="AD1" s="9">
+        <v>2047</v>
+      </c>
+      <c r="AE1" s="9">
+        <v>2048</v>
+      </c>
+      <c r="AF1" s="9">
+        <v>2049</v>
+      </c>
+      <c r="AG1" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2021</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2023</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2024</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2025</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2026</v>
+      </c>
+      <c r="J13" s="9">
+        <v>2027</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2028</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2029</v>
+      </c>
+      <c r="M13" s="9">
+        <v>2030</v>
+      </c>
+      <c r="N13" s="9">
+        <v>2031</v>
+      </c>
+      <c r="O13" s="9">
+        <v>2032</v>
+      </c>
+      <c r="P13" s="9">
+        <v>2033</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>2034</v>
+      </c>
+      <c r="R13" s="9">
+        <v>2035</v>
+      </c>
+      <c r="S13" s="9">
+        <v>2036</v>
+      </c>
+      <c r="T13" s="9">
+        <v>2037</v>
+      </c>
+      <c r="U13" s="9">
+        <v>2038</v>
+      </c>
+      <c r="V13" s="9">
+        <v>2039</v>
+      </c>
+      <c r="W13" s="9">
+        <v>2040</v>
+      </c>
+      <c r="X13" s="9">
+        <v>2041</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>2042</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>2043</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>2044</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>2045</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>2046</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>2047</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>2048</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>2049</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>2050</v>
+      </c>
+      <c r="AH13" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="13">
+        <v>217.319931</v>
+      </c>
+      <c r="D17" s="13">
+        <v>212.916504</v>
+      </c>
+      <c r="E17" s="13">
+        <v>208.204193</v>
+      </c>
+      <c r="F17" s="13">
+        <v>187.94560200000001</v>
+      </c>
+      <c r="G17" s="13">
+        <v>177.84901400000001</v>
+      </c>
+      <c r="H17" s="13">
+        <v>111.623718</v>
+      </c>
+      <c r="I17" s="13">
+        <v>107.49852</v>
+      </c>
+      <c r="J17" s="13">
+        <v>99.094620000000006</v>
+      </c>
+      <c r="K17" s="13">
+        <v>95.793616999999998</v>
+      </c>
+      <c r="L17" s="13">
+        <v>93.304123000000004</v>
+      </c>
+      <c r="M17" s="13">
+        <v>90.772118000000006</v>
+      </c>
+      <c r="N17" s="13">
+        <v>89.354118</v>
+      </c>
+      <c r="O17" s="13">
+        <v>86.515113999999997</v>
+      </c>
+      <c r="P17" s="13">
+        <v>84.896118000000001</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>82.760315000000006</v>
+      </c>
+      <c r="R17" s="13">
+        <v>81.144310000000004</v>
+      </c>
+      <c r="S17" s="13">
+        <v>81.144310000000004</v>
+      </c>
+      <c r="T17" s="13">
+        <v>80.805312999999998</v>
+      </c>
+      <c r="U17" s="13">
+        <v>78.685310000000001</v>
+      </c>
+      <c r="V17" s="13">
+        <v>78.346305999999998</v>
+      </c>
+      <c r="W17" s="13">
+        <v>78.346305999999998</v>
+      </c>
+      <c r="X17" s="13">
+        <v>78.006309999999999</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>78.006309999999999</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>78.006309999999999</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>77.985305999999994</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>75.056304999999995</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>74.376311999999999</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>74.376311999999999</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>73.266311999999999</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>73.266311999999999</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>73.266311999999999</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>-3.5593E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="13">
+        <v>72.645202999999995</v>
+      </c>
+      <c r="D18" s="13">
+        <v>71.450103999999996</v>
+      </c>
+      <c r="E18" s="13">
+        <v>66.598999000000006</v>
+      </c>
+      <c r="F18" s="13">
+        <v>62.020508</v>
+      </c>
+      <c r="G18" s="13">
+        <v>56.839500000000001</v>
+      </c>
+      <c r="H18" s="13">
+        <v>69.829696999999996</v>
+      </c>
+      <c r="I18" s="13">
+        <v>65.722999999999999</v>
+      </c>
+      <c r="J18" s="13">
+        <v>64.680496000000005</v>
+      </c>
+      <c r="K18" s="13">
+        <v>63.032501000000003</v>
+      </c>
+      <c r="L18" s="13">
+        <v>56.303103999999998</v>
+      </c>
+      <c r="M18" s="13">
+        <v>56.258102000000001</v>
+      </c>
+      <c r="N18" s="13">
+        <v>55.284602999999997</v>
+      </c>
+      <c r="O18" s="13">
+        <v>55.041598999999998</v>
+      </c>
+      <c r="P18" s="13">
+        <v>54.297801999999997</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>53.794803999999999</v>
+      </c>
+      <c r="R18" s="13">
+        <v>52.824299000000003</v>
+      </c>
+      <c r="S18" s="13">
+        <v>51.914299</v>
+      </c>
+      <c r="T18" s="13">
+        <v>51.914299</v>
+      </c>
+      <c r="U18" s="13">
+        <v>51.914299</v>
+      </c>
+      <c r="V18" s="13">
+        <v>51.7883</v>
+      </c>
+      <c r="W18" s="13">
+        <v>51.7883</v>
+      </c>
+      <c r="X18" s="13">
+        <v>51.7883</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>51.7883</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>51.7883</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>51.7883</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>51.682301000000002</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>51.682301000000002</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>51.682301000000002</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>51.682301000000002</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>51.129299000000003</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>51.129299000000003</v>
+      </c>
+      <c r="AH18" s="14">
+        <v>-1.1639E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="13">
+        <v>245.41911300000001</v>
+      </c>
+      <c r="D19" s="13">
+        <v>248.74231</v>
+      </c>
+      <c r="E19" s="13">
+        <v>261.34234600000002</v>
+      </c>
+      <c r="F19" s="13">
+        <v>266.809235</v>
+      </c>
+      <c r="G19" s="13">
+        <v>275.23620599999998</v>
+      </c>
+      <c r="H19" s="13">
+        <v>295.59759500000001</v>
+      </c>
+      <c r="I19" s="13">
+        <v>316.24749800000001</v>
+      </c>
+      <c r="J19" s="13">
+        <v>340.656769</v>
+      </c>
+      <c r="K19" s="13">
+        <v>347.021545</v>
+      </c>
+      <c r="L19" s="13">
+        <v>351.83999599999999</v>
+      </c>
+      <c r="M19" s="13">
+        <v>356.66967799999998</v>
+      </c>
+      <c r="N19" s="13">
+        <v>362.06024200000002</v>
+      </c>
+      <c r="O19" s="13">
+        <v>368.02654999999999</v>
+      </c>
+      <c r="P19" s="13">
+        <v>372.73223899999999</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>377.60668900000002</v>
+      </c>
+      <c r="R19" s="13">
+        <v>382.26901199999998</v>
+      </c>
+      <c r="S19" s="13">
+        <v>387.80670199999997</v>
+      </c>
+      <c r="T19" s="13">
+        <v>394.61877399999997</v>
+      </c>
+      <c r="U19" s="13">
+        <v>400.82574499999998</v>
+      </c>
+      <c r="V19" s="13">
+        <v>405.36828600000001</v>
+      </c>
+      <c r="W19" s="13">
+        <v>411.04443400000002</v>
+      </c>
+      <c r="X19" s="13">
+        <v>416.14801</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>421.73791499999999</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>430.15917999999999</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>439.63421599999998</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>444.72955300000001</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>450.20056199999999</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>455.42334</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>462.29406699999998</v>
+      </c>
+      <c r="AF19" s="13">
+        <v>466.41812099999999</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>472.561981</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>2.2079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="13">
+        <v>139.99884</v>
+      </c>
+      <c r="D20" s="13">
+        <v>151.966003</v>
+      </c>
+      <c r="E20" s="13">
+        <v>157.28396599999999</v>
+      </c>
+      <c r="F20" s="13">
+        <v>163.12406899999999</v>
+      </c>
+      <c r="G20" s="13">
+        <v>170.05273399999999</v>
+      </c>
+      <c r="H20" s="13">
+        <v>186.36914100000001</v>
+      </c>
+      <c r="I20" s="13">
+        <v>195.864746</v>
+      </c>
+      <c r="J20" s="13">
+        <v>201.536407</v>
+      </c>
+      <c r="K20" s="13">
+        <v>206.652863</v>
+      </c>
+      <c r="L20" s="13">
+        <v>210.368439</v>
+      </c>
+      <c r="M20" s="13">
+        <v>214.018631</v>
+      </c>
+      <c r="N20" s="13">
+        <v>217.90661600000001</v>
+      </c>
+      <c r="O20" s="13">
+        <v>221.90841699999999</v>
+      </c>
+      <c r="P20" s="13">
+        <v>224.936386</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>229.371002</v>
+      </c>
+      <c r="R20" s="13">
+        <v>234.94541899999999</v>
+      </c>
+      <c r="S20" s="13">
+        <v>239.25157200000001</v>
+      </c>
+      <c r="T20" s="13">
+        <v>243.658432</v>
+      </c>
+      <c r="U20" s="13">
+        <v>246.74908400000001</v>
+      </c>
+      <c r="V20" s="13">
+        <v>250.24752799999999</v>
+      </c>
+      <c r="W20" s="13">
+        <v>255.838989</v>
+      </c>
+      <c r="X20" s="13">
+        <v>259.135986</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>265.74377399999997</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>271.13488799999999</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>275.76062000000002</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>283.54571499999997</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>289.10192899999998</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>293.97659299999998</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>298.957855</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>302.975525</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>310.84103399999998</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>2.6945E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="13">
+        <v>97.120911000000007</v>
+      </c>
+      <c r="D21" s="13">
+        <v>92.484604000000004</v>
+      </c>
+      <c r="E21" s="13">
+        <v>92.860007999999993</v>
+      </c>
+      <c r="F21" s="13">
+        <v>92.904007000000007</v>
+      </c>
+      <c r="G21" s="13">
+        <v>92.954802999999998</v>
+      </c>
+      <c r="H21" s="13">
+        <v>91.863929999999996</v>
+      </c>
+      <c r="I21" s="13">
+        <v>78.538353000000001</v>
+      </c>
+      <c r="J21" s="13">
+        <v>70.422721999999993</v>
+      </c>
+      <c r="K21" s="13">
+        <v>68.100891000000004</v>
+      </c>
+      <c r="L21" s="13">
+        <v>61.715468999999999</v>
+      </c>
+      <c r="M21" s="13">
+        <v>61.801544</v>
+      </c>
+      <c r="N21" s="13">
+        <v>59.645149000000004</v>
+      </c>
+      <c r="O21" s="13">
+        <v>58.456760000000003</v>
+      </c>
+      <c r="P21" s="13">
+        <v>57.484282999999998</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>55.438353999999997</v>
+      </c>
+      <c r="R21" s="13">
+        <v>55.616706999999998</v>
+      </c>
+      <c r="S21" s="13">
+        <v>54.627181999999998</v>
+      </c>
+      <c r="T21" s="13">
+        <v>52.646942000000003</v>
+      </c>
+      <c r="U21" s="13">
+        <v>51.831885999999997</v>
+      </c>
+      <c r="V21" s="13">
+        <v>51.831885999999997</v>
+      </c>
+      <c r="W21" s="13">
+        <v>51.875618000000003</v>
+      </c>
+      <c r="X21" s="13">
+        <v>52.034545999999999</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>52.149535999999998</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>49.878754000000001</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>44.363968</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>44.467846000000002</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>44.521946</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>43.665047000000001</v>
+      </c>
+      <c r="AE21" s="13">
+        <v>41.858733999999998</v>
+      </c>
+      <c r="AF21" s="13">
+        <v>41.899445</v>
+      </c>
+      <c r="AG21" s="13">
+        <v>41.961776999999998</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>-2.7585999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="D22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="E22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="F22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="G22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="H22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="I22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="J22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="K22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="L22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="M22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="N22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="O22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="P22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="R22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="S22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="T22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="U22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="V22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="W22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="X22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="Y22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="Z22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="AA22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="AB22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="AC22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="AD22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="AE22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="AF22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="AG22" s="24">
+        <v>22.778303000000001</v>
+      </c>
+      <c r="AH22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3.1509999999999998</v>
+      </c>
+      <c r="D23" s="13">
+        <v>6.9255000000000004</v>
+      </c>
+      <c r="E23" s="13">
+        <v>8.623799</v>
+      </c>
+      <c r="F23" s="13">
+        <v>9.5348000000000006</v>
+      </c>
+      <c r="G23" s="13">
+        <v>10.196526</v>
+      </c>
+      <c r="H23" s="13">
+        <v>11.049868</v>
+      </c>
+      <c r="I23" s="13">
+        <v>11.467271999999999</v>
+      </c>
+      <c r="J23" s="13">
+        <v>11.890328</v>
+      </c>
+      <c r="K23" s="13">
+        <v>12.301329000000001</v>
+      </c>
+      <c r="L23" s="13">
+        <v>12.712327999999999</v>
+      </c>
+      <c r="M23" s="13">
+        <v>13.123329</v>
+      </c>
+      <c r="N23" s="13">
+        <v>13.123329</v>
+      </c>
+      <c r="O23" s="13">
+        <v>13.128527</v>
+      </c>
+      <c r="P23" s="13">
+        <v>13.128527</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>13.128527</v>
+      </c>
+      <c r="R23" s="13">
+        <v>16.083760999999999</v>
+      </c>
+      <c r="S23" s="13">
+        <v>16.161715999999998</v>
+      </c>
+      <c r="T23" s="13">
+        <v>16.159718000000002</v>
+      </c>
+      <c r="U23" s="13">
+        <v>16.159718000000002</v>
+      </c>
+      <c r="V23" s="13">
+        <v>16.159718000000002</v>
+      </c>
+      <c r="W23" s="13">
+        <v>16.409718000000002</v>
+      </c>
+      <c r="X23" s="13">
+        <v>16.409718000000002</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>16.409718000000002</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>16.409718000000002</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>16.409718000000002</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>16.659718000000002</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>16.659718000000002</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>16.739215999999999</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>17.035295000000001</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>17.258429</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>17.777584000000001</v>
+      </c>
+      <c r="AH23" s="14">
+        <v>5.9369999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.20419999999999999</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0.2303</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.2303</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0.23139699999999999</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.23249800000000001</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0.23249800000000001</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0.23249800000000001</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0.23249800000000001</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0.23249800000000001</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0.23249800000000001</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0.23249800000000001</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0.23139799999999999</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0.23139799999999999</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0.23139799999999999</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0.23139799999999999</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="S24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="T24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="V24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="W24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="X24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>0.23244300000000001</v>
+      </c>
+      <c r="AD24" s="13">
+        <v>0.23344500000000001</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>0.23344500000000001</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>0.23344500000000001</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>0.23344500000000001</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>4.4720000000000003E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="13">
+        <v>263.93090799999999</v>
+      </c>
+      <c r="D25" s="13">
+        <v>283.68081699999999</v>
+      </c>
+      <c r="E25" s="13">
+        <v>302.70617700000003</v>
+      </c>
+      <c r="F25" s="13">
+        <v>334.728973</v>
+      </c>
+      <c r="G25" s="13">
+        <v>369.97695900000002</v>
+      </c>
+      <c r="H25" s="13">
+        <v>389.30862400000001</v>
+      </c>
+      <c r="I25" s="13">
+        <v>402.99243200000001</v>
+      </c>
+      <c r="J25" s="13">
+        <v>409.72994999999997</v>
+      </c>
+      <c r="K25" s="13">
+        <v>416.53796399999999</v>
+      </c>
+      <c r="L25" s="13">
+        <v>427.150757</v>
+      </c>
+      <c r="M25" s="13">
+        <v>435.90374800000001</v>
+      </c>
+      <c r="N25" s="13">
+        <v>439.85443099999998</v>
+      </c>
+      <c r="O25" s="13">
+        <v>445.55587800000001</v>
+      </c>
+      <c r="P25" s="13">
+        <v>452.22250400000001</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>463.27233899999999</v>
+      </c>
+      <c r="R25" s="13">
+        <v>476.526611</v>
+      </c>
+      <c r="S25" s="13">
+        <v>486.44335899999999</v>
+      </c>
+      <c r="T25" s="13">
+        <v>493.015625</v>
+      </c>
+      <c r="U25" s="13">
+        <v>502.82403599999998</v>
+      </c>
+      <c r="V25" s="13">
+        <v>508.071259</v>
+      </c>
+      <c r="W25" s="13">
+        <v>514.43145800000002</v>
+      </c>
+      <c r="X25" s="13">
+        <v>519.57922399999995</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>524.29119900000001</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>531.30828899999995</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>540.67932099999996</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>550.00958300000002</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>563.00537099999997</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>580.09588599999995</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>601.65747099999999</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>626.574341</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>637.316284</v>
+      </c>
+      <c r="AH25" s="14">
+        <v>2.9822000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1.5576829999999999</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2.029814</v>
+      </c>
+      <c r="G26" s="13">
+        <v>2.5895380000000001</v>
+      </c>
+      <c r="H26" s="13">
+        <v>3.7884250000000002</v>
+      </c>
+      <c r="I26" s="13">
+        <v>4.3695849999999998</v>
+      </c>
+      <c r="J26" s="13">
+        <v>5.0523239999999996</v>
+      </c>
+      <c r="K26" s="13">
+        <v>5.9726509999999999</v>
+      </c>
+      <c r="L26" s="13">
+        <v>6.8292250000000001</v>
+      </c>
+      <c r="M26" s="13">
+        <v>7.5518710000000002</v>
+      </c>
+      <c r="N26" s="13">
+        <v>8.3369949999999999</v>
+      </c>
+      <c r="O26" s="13">
+        <v>9.1962609999999998</v>
+      </c>
+      <c r="P26" s="13">
+        <v>10.102161000000001</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>11.118252999999999</v>
+      </c>
+      <c r="R26" s="13">
+        <v>12.202368</v>
+      </c>
+      <c r="S26" s="13">
+        <v>13.468646</v>
+      </c>
+      <c r="T26" s="13">
+        <v>14.828192</v>
+      </c>
+      <c r="U26" s="13">
+        <v>16.063656000000002</v>
+      </c>
+      <c r="V26" s="13">
+        <v>17.337409999999998</v>
+      </c>
+      <c r="W26" s="13">
+        <v>18.650296999999998</v>
+      </c>
+      <c r="X26" s="13">
+        <v>19.995911</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>21.409272999999999</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>23.142251999999999</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>24.906137000000001</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>26.691203999999999</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>28.452904</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>30.297573</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>32.29063</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>34.308743</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>36.505851999999997</v>
+      </c>
+      <c r="AH26" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1062.568481</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1091.174438</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1122.185669</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1142.106689</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1178.7060550000001</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1182.4418949999999</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1205.712158</v>
+      </c>
+      <c r="J27" s="15">
+        <v>1226.0744629999999</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1238.424072</v>
+      </c>
+      <c r="L27" s="15">
+        <v>1243.2341309999999</v>
+      </c>
+      <c r="M27" s="15">
+        <v>1259.109741</v>
+      </c>
+      <c r="N27" s="15">
+        <v>1268.5751949999999</v>
+      </c>
+      <c r="O27" s="15">
+        <v>1280.8388669999999</v>
+      </c>
+      <c r="P27" s="15">
+        <v>1292.809692</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>1309.5</v>
+      </c>
+      <c r="R27" s="15">
+        <v>1334.6232910000001</v>
+      </c>
+      <c r="S27" s="15">
+        <v>1353.8286129999999</v>
+      </c>
+      <c r="T27" s="15">
+        <v>1370.658081</v>
+      </c>
+      <c r="U27" s="15">
+        <v>1388.064331</v>
+      </c>
+      <c r="V27" s="15">
+        <v>1402.161499</v>
+      </c>
+      <c r="W27" s="15">
+        <v>1421.395874</v>
+      </c>
+      <c r="X27" s="15">
+        <v>1436.108643</v>
+      </c>
+      <c r="Y27" s="15">
+        <v>1454.5467530000001</v>
+      </c>
+      <c r="Z27" s="15">
+        <v>1474.8382570000001</v>
+      </c>
+      <c r="AA27" s="15">
+        <v>1494.5382079999999</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>1515.852783</v>
+      </c>
+      <c r="AC27" s="15">
+        <v>1541.0117190000001</v>
+      </c>
+      <c r="AD27" s="15">
+        <v>1569.2680660000001</v>
+      </c>
+      <c r="AE27" s="15">
+        <v>1602.054443</v>
+      </c>
+      <c r="AF27" s="15">
+        <v>1636.8420410000001</v>
+      </c>
+      <c r="AG27" s="15">
+        <v>1664.3718260000001</v>
+      </c>
+      <c r="AH27" s="16">
+        <v>1.5070999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1.8878999999999999</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="J29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="L29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="M29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="N29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="O29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="P29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="R29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="S29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="T29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="U29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="V29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="W29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="X29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="AH29" s="14">
+        <v>-1.9059999999999999E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="R30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="S30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="V30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="W30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="X30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AH30" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="13">
+        <v>21.979706</v>
+      </c>
+      <c r="D31" s="13">
+        <v>21.979706</v>
+      </c>
+      <c r="E31" s="13">
+        <v>21.979706</v>
+      </c>
+      <c r="F31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="G31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="H31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="I31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="J31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="K31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="L31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="M31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="N31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="O31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="P31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="R31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="S31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="T31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="U31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="V31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="W31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="X31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>21.801105</v>
+      </c>
+      <c r="AH31" s="14">
+        <v>-2.72E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="D32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="E32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="F32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="G32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="H32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="I32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="J32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="K32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="L32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="M32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="N32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="O32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="P32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="R32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="S32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="T32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="U32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="V32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="W32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="X32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>3.1476000000000002</v>
+      </c>
+      <c r="AH32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="K33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="O33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="S33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="V33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="W33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="X33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="AA33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="AH33" s="14">
+        <v>6.7999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="15">
+        <v>28.614205999999999</v>
+      </c>
+      <c r="D34" s="15">
+        <v>28.511206000000001</v>
+      </c>
+      <c r="E34" s="15">
+        <v>28.511206000000001</v>
+      </c>
+      <c r="F34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="G34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="H34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="I34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="J34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="K34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="L34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="M34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="N34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="O34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="P34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="R34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="S34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="T34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="U34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="V34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="W34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="X34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="Z34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="AA34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="AB34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="AC34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="AD34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="AE34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="AF34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="AG34" s="15">
+        <v>28.332605000000001</v>
+      </c>
+      <c r="AH34" s="16">
+        <v>-3.3E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13">
+        <v>0</v>
+      </c>
+      <c r="O37" s="13">
+        <v>0</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>0</v>
+      </c>
+      <c r="R37" s="13">
+        <v>0</v>
+      </c>
+      <c r="S37" s="13">
+        <v>0</v>
+      </c>
+      <c r="T37" s="13">
+        <v>0</v>
+      </c>
+      <c r="U37" s="13">
+        <v>0</v>
+      </c>
+      <c r="V37" s="13">
+        <v>0</v>
+      </c>
+      <c r="W37" s="13">
+        <v>0</v>
+      </c>
+      <c r="X37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
+        <v>0</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>0</v>
+      </c>
+      <c r="R38" s="13">
+        <v>0</v>
+      </c>
+      <c r="S38" s="13">
+        <v>0</v>
+      </c>
+      <c r="T38" s="13">
+        <v>0</v>
+      </c>
+      <c r="U38" s="13">
+        <v>0</v>
+      </c>
+      <c r="V38" s="13">
+        <v>0</v>
+      </c>
+      <c r="W38" s="13">
+        <v>0</v>
+      </c>
+      <c r="X38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="13">
+        <v>3.3792</v>
+      </c>
+      <c r="E39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="F39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="G39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="H39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="I39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="J39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="K39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="L39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="M39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="N39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="O39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="P39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="R39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="S39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="T39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="U39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="V39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="W39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="X39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="Y39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>17.000202000000002</v>
+      </c>
+      <c r="AH39" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="13">
+        <v>3.2778</v>
+      </c>
+      <c r="E40" s="13">
+        <v>4.028899</v>
+      </c>
+      <c r="F40" s="13">
+        <v>4.028899</v>
+      </c>
+      <c r="G40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="H40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="I40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="J40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="K40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="L40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="M40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="N40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="O40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="P40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="R40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="S40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="T40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="U40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="V40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="W40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="X40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>4.5458990000000004</v>
+      </c>
+      <c r="AH40" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG41" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH41" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0</v>
+      </c>
+      <c r="K42" s="13">
+        <v>0</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="13">
+        <v>0</v>
+      </c>
+      <c r="O42" s="13">
+        <v>0</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>0</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0</v>
+      </c>
+      <c r="S42" s="13">
+        <v>0</v>
+      </c>
+      <c r="T42" s="13">
+        <v>0</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0</v>
+      </c>
+      <c r="V42" s="13">
+        <v>0</v>
+      </c>
+      <c r="W42" s="13">
+        <v>0</v>
+      </c>
+      <c r="X42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="13">
+        <v>3.7745000000000002</v>
+      </c>
+      <c r="E43" s="13">
+        <v>5.4727990000000002</v>
+      </c>
+      <c r="F43" s="13">
+        <v>6.3837999999999999</v>
+      </c>
+      <c r="G43" s="13">
+        <v>7.0148000000000001</v>
+      </c>
+      <c r="H43" s="13">
+        <v>7.4577999999999998</v>
+      </c>
+      <c r="I43" s="13">
+        <v>7.8688000000000002</v>
+      </c>
+      <c r="J43" s="13">
+        <v>8.2797999999999998</v>
+      </c>
+      <c r="K43" s="13">
+        <v>8.6907999999999994</v>
+      </c>
+      <c r="L43" s="13">
+        <v>9.1017989999999998</v>
+      </c>
+      <c r="M43" s="13">
+        <v>9.5128000000000004</v>
+      </c>
+      <c r="N43" s="13">
+        <v>9.5128000000000004</v>
+      </c>
+      <c r="O43" s="13">
+        <v>9.5128000000000004</v>
+      </c>
+      <c r="P43" s="13">
+        <v>9.5128000000000004</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>9.5128000000000004</v>
+      </c>
+      <c r="R43" s="13">
+        <v>12.462799</v>
+      </c>
+      <c r="S43" s="13">
+        <v>12.462799</v>
+      </c>
+      <c r="T43" s="13">
+        <v>12.462799</v>
+      </c>
+      <c r="U43" s="13">
+        <v>12.462799</v>
+      </c>
+      <c r="V43" s="13">
+        <v>12.462799</v>
+      </c>
+      <c r="W43" s="13">
+        <v>12.7128</v>
+      </c>
+      <c r="X43" s="13">
+        <v>12.7128</v>
+      </c>
+      <c r="Y43" s="13">
+        <v>12.7128</v>
+      </c>
+      <c r="Z43" s="13">
+        <v>12.7128</v>
+      </c>
+      <c r="AA43" s="13">
+        <v>12.7128</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>12.9628</v>
+      </c>
+      <c r="AC43" s="13">
+        <v>12.9628</v>
+      </c>
+      <c r="AD43" s="13">
+        <v>12.9628</v>
+      </c>
+      <c r="AE43" s="13">
+        <v>12.9628</v>
+      </c>
+      <c r="AF43" s="13">
+        <v>12.9628</v>
+      </c>
+      <c r="AG43" s="13">
+        <v>12.9628</v>
+      </c>
+      <c r="AH43" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="E44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="F44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="G44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="H44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="I44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="J44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="K44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="L44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="M44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="N44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="O44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="P44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="R44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="S44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="T44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="U44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="V44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="W44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="X44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="Y44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="Z44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="AA44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="AB44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="AC44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="AD44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="AE44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="AF44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="AG44" s="13">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="AH44" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="13">
+        <v>19.650895999999999</v>
+      </c>
+      <c r="E45" s="13">
+        <v>29.922706999999999</v>
+      </c>
+      <c r="F45" s="13">
+        <v>32.861702000000001</v>
+      </c>
+      <c r="G45" s="13">
+        <v>33.421703000000001</v>
+      </c>
+      <c r="H45" s="13">
+        <v>33.421703000000001</v>
+      </c>
+      <c r="I45" s="13">
+        <v>33.421703000000001</v>
+      </c>
+      <c r="J45" s="13">
+        <v>33.421703000000001</v>
+      </c>
+      <c r="K45" s="13">
+        <v>35.421706999999998</v>
+      </c>
+      <c r="L45" s="13">
+        <v>35.421706999999998</v>
+      </c>
+      <c r="M45" s="13">
+        <v>42.521709000000001</v>
+      </c>
+      <c r="N45" s="13">
+        <v>42.521709000000001</v>
+      </c>
+      <c r="O45" s="13">
+        <v>42.521709000000001</v>
+      </c>
+      <c r="P45" s="13">
+        <v>42.521709000000001</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>47.721705999999998</v>
+      </c>
+      <c r="R45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="S45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="T45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="U45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="V45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="W45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="X45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="Y45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="Z45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="AA45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="AB45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="AC45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="AD45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="AE45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="AF45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="AG45" s="13">
+        <v>55.921703000000001</v>
+      </c>
+      <c r="AH45" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0</v>
+      </c>
+      <c r="K46" s="13">
+        <v>0</v>
+      </c>
+      <c r="L46" s="13">
+        <v>0</v>
+      </c>
+      <c r="M46" s="13">
+        <v>0</v>
+      </c>
+      <c r="N46" s="13">
+        <v>0</v>
+      </c>
+      <c r="O46" s="13">
+        <v>0</v>
+      </c>
+      <c r="P46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>0</v>
+      </c>
+      <c r="R46" s="13">
+        <v>0</v>
+      </c>
+      <c r="S46" s="13">
+        <v>0</v>
+      </c>
+      <c r="T46" s="13">
+        <v>0</v>
+      </c>
+      <c r="U46" s="13">
+        <v>0</v>
+      </c>
+      <c r="V46" s="13">
+        <v>0</v>
+      </c>
+      <c r="W46" s="13">
+        <v>0</v>
+      </c>
+      <c r="X46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="15">
+        <v>31.208511000000001</v>
+      </c>
+      <c r="E47" s="15">
+        <v>58.650719000000002</v>
+      </c>
+      <c r="F47" s="15">
+        <v>62.500725000000003</v>
+      </c>
+      <c r="G47" s="15">
+        <v>64.208716999999993</v>
+      </c>
+      <c r="H47" s="15">
+        <v>64.651718000000002</v>
+      </c>
+      <c r="I47" s="15">
+        <v>65.062720999999996</v>
+      </c>
+      <c r="J47" s="15">
+        <v>65.473724000000004</v>
+      </c>
+      <c r="K47" s="15">
+        <v>67.884720000000002</v>
+      </c>
+      <c r="L47" s="15">
+        <v>68.295722999999995</v>
+      </c>
+      <c r="M47" s="15">
+        <v>75.806725</v>
+      </c>
+      <c r="N47" s="15">
+        <v>75.806725</v>
+      </c>
+      <c r="O47" s="15">
+        <v>75.806725</v>
+      </c>
+      <c r="P47" s="15">
+        <v>75.806725</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>81.006729000000007</v>
+      </c>
+      <c r="R47" s="15">
+        <v>92.156730999999994</v>
+      </c>
+      <c r="S47" s="15">
+        <v>92.156730999999994</v>
+      </c>
+      <c r="T47" s="15">
+        <v>92.156730999999994</v>
+      </c>
+      <c r="U47" s="15">
+        <v>92.156730999999994</v>
+      </c>
+      <c r="V47" s="15">
+        <v>92.156730999999994</v>
+      </c>
+      <c r="W47" s="15">
+        <v>92.406730999999994</v>
+      </c>
+      <c r="X47" s="15">
+        <v>92.406730999999994</v>
+      </c>
+      <c r="Y47" s="15">
+        <v>92.406730999999994</v>
+      </c>
+      <c r="Z47" s="15">
+        <v>92.406730999999994</v>
+      </c>
+      <c r="AA47" s="15">
+        <v>92.406730999999994</v>
+      </c>
+      <c r="AB47" s="15">
+        <v>92.656730999999994</v>
+      </c>
+      <c r="AC47" s="15">
+        <v>92.656730999999994</v>
+      </c>
+      <c r="AD47" s="15">
+        <v>92.656730999999994</v>
+      </c>
+      <c r="AE47" s="15">
+        <v>92.656730999999994</v>
+      </c>
+      <c r="AF47" s="15">
+        <v>92.656730999999994</v>
+      </c>
+      <c r="AG47" s="15">
+        <v>92.656730999999994</v>
+      </c>
+      <c r="AH47" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0</v>
+      </c>
+      <c r="J49" s="13">
+        <v>0</v>
+      </c>
+      <c r="K49" s="13">
+        <v>0</v>
+      </c>
+      <c r="L49" s="13">
+        <v>0</v>
+      </c>
+      <c r="M49" s="13">
+        <v>0</v>
+      </c>
+      <c r="N49" s="13">
+        <v>0</v>
+      </c>
+      <c r="O49" s="13">
+        <v>0</v>
+      </c>
+      <c r="P49" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>0</v>
+      </c>
+      <c r="R49" s="13">
+        <v>0</v>
+      </c>
+      <c r="S49" s="13">
+        <v>0</v>
+      </c>
+      <c r="T49" s="13">
+        <v>0</v>
+      </c>
+      <c r="U49" s="13">
+        <v>0</v>
+      </c>
+      <c r="V49" s="13">
+        <v>0</v>
+      </c>
+      <c r="W49" s="13">
+        <v>0</v>
+      </c>
+      <c r="X49" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="13">
+        <v>0</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0</v>
+      </c>
+      <c r="J50" s="13">
+        <v>0</v>
+      </c>
+      <c r="K50" s="13">
+        <v>0</v>
+      </c>
+      <c r="L50" s="13">
+        <v>0</v>
+      </c>
+      <c r="M50" s="13">
+        <v>0</v>
+      </c>
+      <c r="N50" s="13">
+        <v>0</v>
+      </c>
+      <c r="O50" s="13">
+        <v>0</v>
+      </c>
+      <c r="P50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>0</v>
+      </c>
+      <c r="R50" s="13">
+        <v>0</v>
+      </c>
+      <c r="S50" s="13">
+        <v>0</v>
+      </c>
+      <c r="T50" s="13">
+        <v>0</v>
+      </c>
+      <c r="U50" s="13">
+        <v>0</v>
+      </c>
+      <c r="V50" s="13">
+        <v>0</v>
+      </c>
+      <c r="W50" s="13">
+        <v>0</v>
+      </c>
+      <c r="X50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="13">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>6.8555109999999999</v>
+      </c>
+      <c r="G51" s="13">
+        <v>16.450566999999999</v>
+      </c>
+      <c r="H51" s="13">
+        <v>38.256062</v>
+      </c>
+      <c r="I51" s="13">
+        <v>58.905982999999999</v>
+      </c>
+      <c r="J51" s="13">
+        <v>83.765274000000005</v>
+      </c>
+      <c r="K51" s="13">
+        <v>90.179405000000003</v>
+      </c>
+      <c r="L51" s="13">
+        <v>95.041961999999998</v>
+      </c>
+      <c r="M51" s="13">
+        <v>100.935455</v>
+      </c>
+      <c r="N51" s="13">
+        <v>107.211006</v>
+      </c>
+      <c r="O51" s="13">
+        <v>113.17733</v>
+      </c>
+      <c r="P51" s="13">
+        <v>117.945724</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>122.96219600000001</v>
+      </c>
+      <c r="R51" s="13">
+        <v>127.695549</v>
+      </c>
+      <c r="S51" s="13">
+        <v>133.23320000000001</v>
+      </c>
+      <c r="T51" s="13">
+        <v>140.04530299999999</v>
+      </c>
+      <c r="U51" s="13">
+        <v>146.252274</v>
+      </c>
+      <c r="V51" s="13">
+        <v>151.44778400000001</v>
+      </c>
+      <c r="W51" s="13">
+        <v>157.12399300000001</v>
+      </c>
+      <c r="X51" s="13">
+        <v>162.22753900000001</v>
+      </c>
+      <c r="Y51" s="13">
+        <v>168.328506</v>
+      </c>
+      <c r="Z51" s="13">
+        <v>176.74975599999999</v>
+      </c>
+      <c r="AA51" s="13">
+        <v>186.22479200000001</v>
+      </c>
+      <c r="AB51" s="13">
+        <v>191.347137</v>
+      </c>
+      <c r="AC51" s="13">
+        <v>196.818207</v>
+      </c>
+      <c r="AD51" s="13">
+        <v>202.66996800000001</v>
+      </c>
+      <c r="AE51" s="13">
+        <v>209.540695</v>
+      </c>
+      <c r="AF51" s="13">
+        <v>213.72131300000001</v>
+      </c>
+      <c r="AG51" s="13">
+        <v>219.86515800000001</v>
+      </c>
+      <c r="AH51" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="13">
+        <v>8.7081459999999993</v>
+      </c>
+      <c r="E52" s="13">
+        <v>13.355809000000001</v>
+      </c>
+      <c r="F52" s="13">
+        <v>19.833431000000001</v>
+      </c>
+      <c r="G52" s="13">
+        <v>26.814488999999998</v>
+      </c>
+      <c r="H52" s="13">
+        <v>43.190497999999998</v>
+      </c>
+      <c r="I52" s="13">
+        <v>53.946213</v>
+      </c>
+      <c r="J52" s="13">
+        <v>60.250495999999998</v>
+      </c>
+      <c r="K52" s="13">
+        <v>65.372116000000005</v>
+      </c>
+      <c r="L52" s="13">
+        <v>69.087692000000004</v>
+      </c>
+      <c r="M52" s="13">
+        <v>73.102401999999998</v>
+      </c>
+      <c r="N52" s="13">
+        <v>76.990356000000006</v>
+      </c>
+      <c r="O52" s="13">
+        <v>81.154197999999994</v>
+      </c>
+      <c r="P52" s="13">
+        <v>84.302963000000005</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>88.756134000000003</v>
+      </c>
+      <c r="R52" s="13">
+        <v>94.347572</v>
+      </c>
+      <c r="S52" s="13">
+        <v>98.653747999999993</v>
+      </c>
+      <c r="T52" s="13">
+        <v>103.060608</v>
+      </c>
+      <c r="U52" s="13">
+        <v>106.163765</v>
+      </c>
+      <c r="V52" s="13">
+        <v>109.662178</v>
+      </c>
+      <c r="W52" s="13">
+        <v>115.25361599999999</v>
+      </c>
+      <c r="X52" s="13">
+        <v>118.759636</v>
+      </c>
+      <c r="Y52" s="13">
+        <v>125.399483</v>
+      </c>
+      <c r="Z52" s="13">
+        <v>130.790558</v>
+      </c>
+      <c r="AA52" s="13">
+        <v>135.41630599999999</v>
+      </c>
+      <c r="AB52" s="13">
+        <v>143.28834499999999</v>
+      </c>
+      <c r="AC52" s="13">
+        <v>148.84458900000001</v>
+      </c>
+      <c r="AD52" s="13">
+        <v>153.71923799999999</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>158.76603700000001</v>
+      </c>
+      <c r="AF52" s="13">
+        <v>162.78370699999999</v>
+      </c>
+      <c r="AG52" s="13">
+        <v>170.64920000000001</v>
+      </c>
+      <c r="AH52" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0</v>
+      </c>
+      <c r="K53" s="13">
+        <v>0</v>
+      </c>
+      <c r="L53" s="13">
+        <v>0</v>
+      </c>
+      <c r="M53" s="13">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13">
+        <v>0</v>
+      </c>
+      <c r="O53" s="13">
+        <v>0</v>
+      </c>
+      <c r="P53" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>0</v>
+      </c>
+      <c r="R53" s="13">
+        <v>0</v>
+      </c>
+      <c r="S53" s="13">
+        <v>0</v>
+      </c>
+      <c r="T53" s="13">
+        <v>0</v>
+      </c>
+      <c r="U53" s="13">
+        <v>0</v>
+      </c>
+      <c r="V53" s="13">
+        <v>0</v>
+      </c>
+      <c r="W53" s="13">
+        <v>0</v>
+      </c>
+      <c r="X53" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13">
+        <v>0</v>
+      </c>
+      <c r="J54" s="13">
+        <v>0</v>
+      </c>
+      <c r="K54" s="13">
+        <v>0</v>
+      </c>
+      <c r="L54" s="13">
+        <v>0</v>
+      </c>
+      <c r="M54" s="13">
+        <v>0</v>
+      </c>
+      <c r="N54" s="13">
+        <v>0</v>
+      </c>
+      <c r="O54" s="13">
+        <v>0</v>
+      </c>
+      <c r="P54" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>0</v>
+      </c>
+      <c r="R54" s="13">
+        <v>0</v>
+      </c>
+      <c r="S54" s="13">
+        <v>0</v>
+      </c>
+      <c r="T54" s="13">
+        <v>0</v>
+      </c>
+      <c r="U54" s="13">
+        <v>0</v>
+      </c>
+      <c r="V54" s="13">
+        <v>0</v>
+      </c>
+      <c r="W54" s="13">
+        <v>0</v>
+      </c>
+      <c r="X54" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="13">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0</v>
+      </c>
+      <c r="G55" s="13">
+        <v>3.1725999999999997E-2</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0.44206699999999999</v>
+      </c>
+      <c r="I55" s="13">
+        <v>0.44847100000000001</v>
+      </c>
+      <c r="J55" s="13">
+        <v>0.46052799999999999</v>
+      </c>
+      <c r="K55" s="13">
+        <v>0.46052799999999999</v>
+      </c>
+      <c r="L55" s="13">
+        <v>0.46052799999999999</v>
+      </c>
+      <c r="M55" s="13">
+        <v>0.46052799999999999</v>
+      </c>
+      <c r="N55" s="13">
+        <v>0.46052799999999999</v>
+      </c>
+      <c r="O55" s="13">
+        <v>0.46572599999999997</v>
+      </c>
+      <c r="P55" s="13">
+        <v>0.46572599999999997</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>0.46572599999999997</v>
+      </c>
+      <c r="R55" s="13">
+        <v>0.47096199999999999</v>
+      </c>
+      <c r="S55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="T55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="U55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="V55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="W55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="X55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="Y55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="Z55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="AA55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="AB55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="AC55" s="13">
+        <v>0.54891699999999999</v>
+      </c>
+      <c r="AD55" s="13">
+        <v>0.62841499999999995</v>
+      </c>
+      <c r="AE55" s="13">
+        <v>0.92449499999999996</v>
+      </c>
+      <c r="AF55" s="13">
+        <v>1.1476280000000001</v>
+      </c>
+      <c r="AG55" s="13">
+        <v>1.666782</v>
+      </c>
+      <c r="AH55" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1.0970000000000001E-3</v>
+      </c>
+      <c r="G56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="H56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="I56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="J56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="K56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="L56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="M56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="N56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="O56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="P56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="R56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="S56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="T56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="U56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="V56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="W56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="X56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="Y56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="Z56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="AA56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="AB56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="AC56" s="13">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="AD56" s="13">
+        <v>4.2449999999999996E-3</v>
+      </c>
+      <c r="AE56" s="13">
+        <v>4.2449999999999996E-3</v>
+      </c>
+      <c r="AF56" s="13">
+        <v>4.2449999999999996E-3</v>
+      </c>
+      <c r="AG56" s="13">
+        <v>4.2449999999999996E-3</v>
+      </c>
+      <c r="AH56" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="13">
+        <v>0.100994</v>
+      </c>
+      <c r="E57" s="13">
+        <v>8.8666490000000007</v>
+      </c>
+      <c r="F57" s="13">
+        <v>37.973278000000001</v>
+      </c>
+      <c r="G57" s="13">
+        <v>72.677268999999995</v>
+      </c>
+      <c r="H57" s="13">
+        <v>92.013435000000001</v>
+      </c>
+      <c r="I57" s="13">
+        <v>105.69729599999999</v>
+      </c>
+      <c r="J57" s="13">
+        <v>112.43943</v>
+      </c>
+      <c r="K57" s="13">
+        <v>117.455681</v>
+      </c>
+      <c r="L57" s="13">
+        <v>128.147919</v>
+      </c>
+      <c r="M57" s="13">
+        <v>129.800873</v>
+      </c>
+      <c r="N57" s="13">
+        <v>133.75157200000001</v>
+      </c>
+      <c r="O57" s="13">
+        <v>139.453003</v>
+      </c>
+      <c r="P57" s="13">
+        <v>146.11961400000001</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>151.96945199999999</v>
+      </c>
+      <c r="R57" s="13">
+        <v>157.02372700000001</v>
+      </c>
+      <c r="S57" s="13">
+        <v>166.94049100000001</v>
+      </c>
+      <c r="T57" s="13">
+        <v>173.512833</v>
+      </c>
+      <c r="U57" s="13">
+        <v>183.321091</v>
+      </c>
+      <c r="V57" s="13">
+        <v>188.56845100000001</v>
+      </c>
+      <c r="W57" s="13">
+        <v>194.92855800000001</v>
+      </c>
+      <c r="X57" s="13">
+        <v>200.07630900000001</v>
+      </c>
+      <c r="Y57" s="13">
+        <v>204.78831500000001</v>
+      </c>
+      <c r="Z57" s="13">
+        <v>211.80543499999999</v>
+      </c>
+      <c r="AA57" s="13">
+        <v>221.25636299999999</v>
+      </c>
+      <c r="AB57" s="13">
+        <v>230.58656300000001</v>
+      </c>
+      <c r="AC57" s="13">
+        <v>243.582413</v>
+      </c>
+      <c r="AD57" s="13">
+        <v>260.67590300000001</v>
+      </c>
+      <c r="AE57" s="13">
+        <v>282.23745700000001</v>
+      </c>
+      <c r="AF57" s="13">
+        <v>307.169464</v>
+      </c>
+      <c r="AG57" s="13">
+        <v>317.91125499999998</v>
+      </c>
+      <c r="AH57" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1.5576829999999999</v>
+      </c>
+      <c r="F58" s="13">
+        <v>2.029814</v>
+      </c>
+      <c r="G58" s="13">
+        <v>2.5895380000000001</v>
+      </c>
+      <c r="H58" s="13">
+        <v>3.7884250000000002</v>
+      </c>
+      <c r="I58" s="13">
+        <v>4.3695849999999998</v>
+      </c>
+      <c r="J58" s="13">
+        <v>5.0523239999999996</v>
+      </c>
+      <c r="K58" s="13">
+        <v>5.9726509999999999</v>
+      </c>
+      <c r="L58" s="13">
+        <v>6.8292250000000001</v>
+      </c>
+      <c r="M58" s="13">
+        <v>7.5518710000000002</v>
+      </c>
+      <c r="N58" s="13">
+        <v>8.3369949999999999</v>
+      </c>
+      <c r="O58" s="13">
+        <v>9.1962609999999998</v>
+      </c>
+      <c r="P58" s="13">
+        <v>10.102161000000001</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>11.118252999999999</v>
+      </c>
+      <c r="R58" s="13">
+        <v>12.202368</v>
+      </c>
+      <c r="S58" s="13">
+        <v>13.468646</v>
+      </c>
+      <c r="T58" s="13">
+        <v>14.828192</v>
+      </c>
+      <c r="U58" s="13">
+        <v>16.063656000000002</v>
+      </c>
+      <c r="V58" s="13">
+        <v>17.337409999999998</v>
+      </c>
+      <c r="W58" s="13">
+        <v>18.650296999999998</v>
+      </c>
+      <c r="X58" s="13">
+        <v>19.995911</v>
+      </c>
+      <c r="Y58" s="13">
+        <v>21.409272999999999</v>
+      </c>
+      <c r="Z58" s="13">
+        <v>23.142251999999999</v>
+      </c>
+      <c r="AA58" s="13">
+        <v>24.906137000000001</v>
+      </c>
+      <c r="AB58" s="13">
+        <v>26.691203999999999</v>
+      </c>
+      <c r="AC58" s="13">
+        <v>28.452904</v>
+      </c>
+      <c r="AD58" s="13">
+        <v>30.297573</v>
+      </c>
+      <c r="AE58" s="13">
+        <v>32.29063</v>
+      </c>
+      <c r="AF58" s="13">
+        <v>34.308743</v>
+      </c>
+      <c r="AG58" s="13">
+        <v>36.505851999999997</v>
+      </c>
+      <c r="AH58" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="15">
+        <v>8.8091390000000001</v>
+      </c>
+      <c r="E59" s="15">
+        <v>23.780142000000001</v>
+      </c>
+      <c r="F59" s="15">
+        <v>66.693123</v>
+      </c>
+      <c r="G59" s="15">
+        <v>118.565781</v>
+      </c>
+      <c r="H59" s="15">
+        <v>177.69270299999999</v>
+      </c>
+      <c r="I59" s="15">
+        <v>223.36970500000001</v>
+      </c>
+      <c r="J59" s="15">
+        <v>261.97018400000002</v>
+      </c>
+      <c r="K59" s="15">
+        <v>279.44250499999998</v>
+      </c>
+      <c r="L59" s="15">
+        <v>299.56939699999998</v>
+      </c>
+      <c r="M59" s="15">
+        <v>311.85327100000001</v>
+      </c>
+      <c r="N59" s="15">
+        <v>326.75259399999999</v>
+      </c>
+      <c r="O59" s="15">
+        <v>343.448669</v>
+      </c>
+      <c r="P59" s="15">
+        <v>358.938354</v>
+      </c>
+      <c r="Q59" s="15">
+        <v>375.27404799999999</v>
+      </c>
+      <c r="R59" s="15">
+        <v>391.74343900000002</v>
+      </c>
+      <c r="S59" s="15">
+        <v>412.84817500000003</v>
+      </c>
+      <c r="T59" s="15">
+        <v>431.99893200000002</v>
+      </c>
+      <c r="U59" s="15">
+        <v>452.35299700000002</v>
+      </c>
+      <c r="V59" s="15">
+        <v>467.56793199999998</v>
+      </c>
+      <c r="W59" s="15">
+        <v>486.50869799999998</v>
+      </c>
+      <c r="X59" s="15">
+        <v>501.611603</v>
+      </c>
+      <c r="Y59" s="15">
+        <v>520.47778300000004</v>
+      </c>
+      <c r="Z59" s="15">
+        <v>543.04028300000004</v>
+      </c>
+      <c r="AA59" s="15">
+        <v>568.35583499999996</v>
+      </c>
+      <c r="AB59" s="15">
+        <v>592.46545400000002</v>
+      </c>
+      <c r="AC59" s="15">
+        <v>618.25018299999999</v>
+      </c>
+      <c r="AD59" s="15">
+        <v>647.99548300000004</v>
+      </c>
+      <c r="AE59" s="15">
+        <v>683.76336700000002</v>
+      </c>
+      <c r="AF59" s="15">
+        <v>719.13476600000001</v>
+      </c>
+      <c r="AG59" s="15">
+        <v>746.60253899999998</v>
+      </c>
+      <c r="AH59" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="15">
+        <v>40.017651000000001</v>
+      </c>
+      <c r="E60" s="15">
+        <v>82.430862000000005</v>
+      </c>
+      <c r="F60" s="15">
+        <v>129.193848</v>
+      </c>
+      <c r="G60" s="15">
+        <v>182.774506</v>
+      </c>
+      <c r="H60" s="15">
+        <v>242.34442100000001</v>
+      </c>
+      <c r="I60" s="15">
+        <v>288.432434</v>
+      </c>
+      <c r="J60" s="15">
+        <v>327.44390900000002</v>
+      </c>
+      <c r="K60" s="15">
+        <v>347.32720899999998</v>
+      </c>
+      <c r="L60" s="15">
+        <v>367.86511200000001</v>
+      </c>
+      <c r="M60" s="15">
+        <v>387.66000400000001</v>
+      </c>
+      <c r="N60" s="15">
+        <v>402.559326</v>
+      </c>
+      <c r="O60" s="15">
+        <v>419.255402</v>
+      </c>
+      <c r="P60" s="15">
+        <v>434.74508700000001</v>
+      </c>
+      <c r="Q60" s="15">
+        <v>456.28076199999998</v>
+      </c>
+      <c r="R60" s="15">
+        <v>483.90017699999999</v>
+      </c>
+      <c r="S60" s="15">
+        <v>505.00491299999999</v>
+      </c>
+      <c r="T60" s="15">
+        <v>524.15563999999995</v>
+      </c>
+      <c r="U60" s="15">
+        <v>544.50970500000005</v>
+      </c>
+      <c r="V60" s="15">
+        <v>559.72466999999995</v>
+      </c>
+      <c r="W60" s="15">
+        <v>578.91540499999996</v>
+      </c>
+      <c r="X60" s="15">
+        <v>594.01831100000004</v>
+      </c>
+      <c r="Y60" s="15">
+        <v>612.88452099999995</v>
+      </c>
+      <c r="Z60" s="15">
+        <v>635.44702099999995</v>
+      </c>
+      <c r="AA60" s="15">
+        <v>660.76257299999997</v>
+      </c>
+      <c r="AB60" s="15">
+        <v>685.12219200000004</v>
+      </c>
+      <c r="AC60" s="15">
+        <v>710.90692100000001</v>
+      </c>
+      <c r="AD60" s="15">
+        <v>740.65222200000005</v>
+      </c>
+      <c r="AE60" s="15">
+        <v>776.42010500000004</v>
+      </c>
+      <c r="AF60" s="15">
+        <v>811.79150400000003</v>
+      </c>
+      <c r="AG60" s="15">
+        <v>839.259277</v>
+      </c>
+      <c r="AH60" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="13">
+        <v>4.5084</v>
+      </c>
+      <c r="E63" s="13">
+        <v>9.2206989999999998</v>
+      </c>
+      <c r="F63" s="13">
+        <v>29.479296000000001</v>
+      </c>
+      <c r="G63" s="13">
+        <v>39.575901000000002</v>
+      </c>
+      <c r="H63" s="13">
+        <v>89.742378000000002</v>
+      </c>
+      <c r="I63" s="13">
+        <v>93.867583999999994</v>
+      </c>
+      <c r="J63" s="13">
+        <v>102.27149199999999</v>
+      </c>
+      <c r="K63" s="13">
+        <v>105.572487</v>
+      </c>
+      <c r="L63" s="13">
+        <v>108.06199599999999</v>
+      </c>
+      <c r="M63" s="13">
+        <v>110.594002</v>
+      </c>
+      <c r="N63" s="13">
+        <v>112.012001</v>
+      </c>
+      <c r="O63" s="13">
+        <v>114.851006</v>
+      </c>
+      <c r="P63" s="13">
+        <v>116.470009</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>118.60580400000001</v>
+      </c>
+      <c r="R63" s="13">
+        <v>120.22180899999999</v>
+      </c>
+      <c r="S63" s="13">
+        <v>120.22180899999999</v>
+      </c>
+      <c r="T63" s="13">
+        <v>120.56081399999999</v>
+      </c>
+      <c r="U63" s="13">
+        <v>122.68079400000001</v>
+      </c>
+      <c r="V63" s="13">
+        <v>123.01979799999999</v>
+      </c>
+      <c r="W63" s="13">
+        <v>123.01979799999999</v>
+      </c>
+      <c r="X63" s="13">
+        <v>123.35979500000001</v>
+      </c>
+      <c r="Y63" s="13">
+        <v>123.35979500000001</v>
+      </c>
+      <c r="Z63" s="13">
+        <v>123.35979500000001</v>
+      </c>
+      <c r="AA63" s="13">
+        <v>123.380791</v>
+      </c>
+      <c r="AB63" s="13">
+        <v>126.309792</v>
+      </c>
+      <c r="AC63" s="13">
+        <v>126.989799</v>
+      </c>
+      <c r="AD63" s="13">
+        <v>126.989799</v>
+      </c>
+      <c r="AE63" s="13">
+        <v>128.09979200000001</v>
+      </c>
+      <c r="AF63" s="13">
+        <v>128.09979200000001</v>
+      </c>
+      <c r="AG63" s="13">
+        <v>128.09979200000001</v>
+      </c>
+      <c r="AH63" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1.1951000000000001</v>
+      </c>
+      <c r="E64" s="13">
+        <v>6.0462009999999999</v>
+      </c>
+      <c r="F64" s="13">
+        <v>10.624701999999999</v>
+      </c>
+      <c r="G64" s="13">
+        <v>15.805702</v>
+      </c>
+      <c r="H64" s="13">
+        <v>18.874302</v>
+      </c>
+      <c r="I64" s="13">
+        <v>22.981003000000001</v>
+      </c>
+      <c r="J64" s="13">
+        <v>24.023502000000001</v>
+      </c>
+      <c r="K64" s="13">
+        <v>25.671500999999999</v>
+      </c>
+      <c r="L64" s="13">
+        <v>32.400902000000002</v>
+      </c>
+      <c r="M64" s="13">
+        <v>32.445903999999999</v>
+      </c>
+      <c r="N64" s="13">
+        <v>33.419407</v>
+      </c>
+      <c r="O64" s="13">
+        <v>33.662407000000002</v>
+      </c>
+      <c r="P64" s="13">
+        <v>34.406207999999999</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>34.909205999999998</v>
+      </c>
+      <c r="R64" s="13">
+        <v>35.879707000000003</v>
+      </c>
+      <c r="S64" s="13">
+        <v>36.789703000000003</v>
+      </c>
+      <c r="T64" s="13">
+        <v>36.789703000000003</v>
+      </c>
+      <c r="U64" s="13">
+        <v>36.789703000000003</v>
+      </c>
+      <c r="V64" s="13">
+        <v>36.915703000000001</v>
+      </c>
+      <c r="W64" s="13">
+        <v>36.915703000000001</v>
+      </c>
+      <c r="X64" s="13">
+        <v>36.915703000000001</v>
+      </c>
+      <c r="Y64" s="13">
+        <v>36.915703000000001</v>
+      </c>
+      <c r="Z64" s="13">
+        <v>36.915703000000001</v>
+      </c>
+      <c r="AA64" s="13">
+        <v>36.915703000000001</v>
+      </c>
+      <c r="AB64" s="13">
+        <v>37.021706000000002</v>
+      </c>
+      <c r="AC64" s="13">
+        <v>37.021706000000002</v>
+      </c>
+      <c r="AD64" s="13">
+        <v>37.021706000000002</v>
+      </c>
+      <c r="AE64" s="13">
+        <v>37.021706000000002</v>
+      </c>
+      <c r="AF64" s="13">
+        <v>37.574706999999997</v>
+      </c>
+      <c r="AG64" s="13">
+        <v>37.574706999999997</v>
+      </c>
+      <c r="AH64" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E65" s="13">
+        <v>1.077</v>
+      </c>
+      <c r="F65" s="13">
+        <v>2.6442000000000001</v>
+      </c>
+      <c r="G65" s="13">
+        <v>3.8123</v>
+      </c>
+      <c r="H65" s="13">
+        <v>5.2564019999999996</v>
+      </c>
+      <c r="I65" s="13">
+        <v>5.2564019999999996</v>
+      </c>
+      <c r="J65" s="13">
+        <v>5.7064019999999998</v>
+      </c>
+      <c r="K65" s="13">
+        <v>5.7558020000000001</v>
+      </c>
+      <c r="L65" s="13">
+        <v>5.7999010000000002</v>
+      </c>
+      <c r="M65" s="13">
+        <v>6.8637009999999998</v>
+      </c>
+      <c r="N65" s="13">
+        <v>7.7487019999999998</v>
+      </c>
+      <c r="O65" s="13">
+        <v>7.7487019999999998</v>
+      </c>
+      <c r="P65" s="13">
+        <v>7.8114020000000002</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>7.9534019999999996</v>
+      </c>
+      <c r="R65" s="13">
+        <v>8.0244020000000003</v>
+      </c>
+      <c r="S65" s="13">
+        <v>8.0244020000000003</v>
+      </c>
+      <c r="T65" s="13">
+        <v>8.0244020000000003</v>
+      </c>
+      <c r="U65" s="13">
+        <v>8.0244020000000003</v>
+      </c>
+      <c r="V65" s="13">
+        <v>8.6774020000000007</v>
+      </c>
+      <c r="W65" s="13">
+        <v>8.6774020000000007</v>
+      </c>
+      <c r="X65" s="13">
+        <v>8.6774020000000007</v>
+      </c>
+      <c r="Y65" s="13">
+        <v>9.1885019999999997</v>
+      </c>
+      <c r="Z65" s="13">
+        <v>9.1885019999999997</v>
+      </c>
+      <c r="AA65" s="13">
+        <v>9.1885019999999997</v>
+      </c>
+      <c r="AB65" s="13">
+        <v>9.2155020000000007</v>
+      </c>
+      <c r="AC65" s="13">
+        <v>9.2155020000000007</v>
+      </c>
+      <c r="AD65" s="13">
+        <v>9.8445009999999993</v>
+      </c>
+      <c r="AE65" s="13">
+        <v>9.8445009999999993</v>
+      </c>
+      <c r="AF65" s="13">
+        <v>9.9011019999999998</v>
+      </c>
+      <c r="AG65" s="13">
+        <v>9.9011019999999998</v>
+      </c>
+      <c r="AH65" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="13">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="E66" s="13">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0.73709999999999998</v>
+      </c>
+      <c r="G66" s="13">
+        <v>1.3065</v>
+      </c>
+      <c r="H66" s="13">
+        <v>1.3661000000000001</v>
+      </c>
+      <c r="I66" s="13">
+        <v>2.6261999999999999</v>
+      </c>
+      <c r="J66" s="13">
+        <v>3.2588010000000001</v>
+      </c>
+      <c r="K66" s="13">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="L66" s="13">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="M66" s="13">
+        <v>3.6284999999999998</v>
+      </c>
+      <c r="N66" s="13">
+        <v>3.6284999999999998</v>
+      </c>
+      <c r="O66" s="13">
+        <v>3.7905009999999999</v>
+      </c>
+      <c r="P66" s="13">
+        <v>3.9113009999999999</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>3.9299010000000001</v>
+      </c>
+      <c r="R66" s="13">
+        <v>3.946901</v>
+      </c>
+      <c r="S66" s="13">
+        <v>3.946901</v>
+      </c>
+      <c r="T66" s="13">
+        <v>3.946901</v>
+      </c>
+      <c r="U66" s="13">
+        <v>3.9594010000000002</v>
+      </c>
+      <c r="V66" s="13">
+        <v>3.9594010000000002</v>
+      </c>
+      <c r="W66" s="13">
+        <v>3.9594010000000002</v>
+      </c>
+      <c r="X66" s="13">
+        <v>4.1684010000000002</v>
+      </c>
+      <c r="Y66" s="13">
+        <v>4.2004010000000003</v>
+      </c>
+      <c r="Z66" s="13">
+        <v>4.2004010000000003</v>
+      </c>
+      <c r="AA66" s="13">
+        <v>4.2004010000000003</v>
+      </c>
+      <c r="AB66" s="13">
+        <v>4.287401</v>
+      </c>
+      <c r="AC66" s="13">
+        <v>4.287401</v>
+      </c>
+      <c r="AD66" s="13">
+        <v>4.287401</v>
+      </c>
+      <c r="AE66" s="13">
+        <v>4.3529010000000001</v>
+      </c>
+      <c r="AF66" s="13">
+        <v>4.3529010000000001</v>
+      </c>
+      <c r="AG66" s="13">
+        <v>4.3529010000000001</v>
+      </c>
+      <c r="AH66" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="13">
+        <v>5.7363</v>
+      </c>
+      <c r="E67" s="13">
+        <v>6.5079000000000002</v>
+      </c>
+      <c r="F67" s="13">
+        <v>6.5079000000000002</v>
+      </c>
+      <c r="G67" s="13">
+        <v>6.5079000000000002</v>
+      </c>
+      <c r="H67" s="13">
+        <v>7.6299000000000001</v>
+      </c>
+      <c r="I67" s="13">
+        <v>20.986601</v>
+      </c>
+      <c r="J67" s="13">
+        <v>29.137402000000002</v>
+      </c>
+      <c r="K67" s="13">
+        <v>31.494406000000001</v>
+      </c>
+      <c r="L67" s="13">
+        <v>37.924796999999998</v>
+      </c>
+      <c r="M67" s="13">
+        <v>37.924796999999998</v>
+      </c>
+      <c r="N67" s="13">
+        <v>40.219898000000001</v>
+      </c>
+      <c r="O67" s="13">
+        <v>41.504596999999997</v>
+      </c>
+      <c r="P67" s="13">
+        <v>42.569598999999997</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>44.703598</v>
+      </c>
+      <c r="R67" s="13">
+        <v>44.703598</v>
+      </c>
+      <c r="S67" s="13">
+        <v>45.825699</v>
+      </c>
+      <c r="T67" s="13">
+        <v>47.832698999999998</v>
+      </c>
+      <c r="U67" s="13">
+        <v>48.674495999999998</v>
+      </c>
+      <c r="V67" s="13">
+        <v>48.674495999999998</v>
+      </c>
+      <c r="W67" s="13">
+        <v>48.674495999999998</v>
+      </c>
+      <c r="X67" s="13">
+        <v>48.674495999999998</v>
+      </c>
+      <c r="Y67" s="13">
+        <v>48.674495999999998</v>
+      </c>
+      <c r="Z67" s="13">
+        <v>51.056198000000002</v>
+      </c>
+      <c r="AA67" s="13">
+        <v>56.666896999999999</v>
+      </c>
+      <c r="AB67" s="13">
+        <v>56.666896999999999</v>
+      </c>
+      <c r="AC67" s="13">
+        <v>56.666896999999999</v>
+      </c>
+      <c r="AD67" s="13">
+        <v>57.5779</v>
+      </c>
+      <c r="AE67" s="13">
+        <v>59.417895999999999</v>
+      </c>
+      <c r="AF67" s="13">
+        <v>59.417895999999999</v>
+      </c>
+      <c r="AG67" s="13">
+        <v>59.417895999999999</v>
+      </c>
+      <c r="AH67" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="13">
+        <v>0</v>
+      </c>
+      <c r="E68" s="13">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
+        <v>0</v>
+      </c>
+      <c r="G68" s="13">
+        <v>0</v>
+      </c>
+      <c r="H68" s="13">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13">
+        <v>0</v>
+      </c>
+      <c r="J68" s="13">
+        <v>0</v>
+      </c>
+      <c r="K68" s="13">
+        <v>0</v>
+      </c>
+      <c r="L68" s="13">
+        <v>0</v>
+      </c>
+      <c r="M68" s="13">
+        <v>0</v>
+      </c>
+      <c r="N68" s="13">
+        <v>0</v>
+      </c>
+      <c r="O68" s="13">
+        <v>0</v>
+      </c>
+      <c r="P68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>0</v>
+      </c>
+      <c r="R68" s="13">
+        <v>0</v>
+      </c>
+      <c r="S68" s="13">
+        <v>0</v>
+      </c>
+      <c r="T68" s="13">
+        <v>0</v>
+      </c>
+      <c r="U68" s="13">
+        <v>0</v>
+      </c>
+      <c r="V68" s="13">
+        <v>0</v>
+      </c>
+      <c r="W68" s="13">
+        <v>0</v>
+      </c>
+      <c r="X68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="13">
+        <v>0</v>
+      </c>
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0</v>
+      </c>
+      <c r="G69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="H69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="I69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="J69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="K69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="L69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="M69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="N69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="O69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="P69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="R69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="S69" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="T69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Y69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AA69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AB69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AC69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AD69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AF69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG69" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AH69" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="13">
+        <v>0</v>
+      </c>
+      <c r="E70" s="13">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13">
+        <v>0</v>
+      </c>
+      <c r="J70" s="13">
+        <v>0</v>
+      </c>
+      <c r="K70" s="13">
+        <v>0</v>
+      </c>
+      <c r="L70" s="13">
+        <v>0</v>
+      </c>
+      <c r="M70" s="13">
+        <v>0</v>
+      </c>
+      <c r="N70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="O70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="R70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="S70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="T70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="U70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="V70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="W70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="X70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="Y70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="Z70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AA70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AB70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AC70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AD70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AE70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AF70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AG70" s="13">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AH70" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="13">
+        <v>0</v>
+      </c>
+      <c r="E71" s="13">
+        <v>1.21E-2</v>
+      </c>
+      <c r="F71" s="13">
+        <v>3.49E-2</v>
+      </c>
+      <c r="G71" s="13">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="H71" s="13">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="I71" s="13">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="J71" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="K71" s="13">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="L71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="M71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="N71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="O71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="P71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="R71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="S71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="T71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="U71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="V71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="W71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="X71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="Y71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="Z71" s="13">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="AA71" s="13">
+        <v>0.3916</v>
+      </c>
+      <c r="AB71" s="13">
+        <v>0.3916</v>
+      </c>
+      <c r="AC71" s="13">
+        <v>0.3916</v>
+      </c>
+      <c r="AD71" s="13">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="AE71" s="13">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="AF71" s="13">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="AG71" s="13">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="AH71" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="15">
+        <v>11.514602999999999</v>
+      </c>
+      <c r="E72" s="15">
+        <v>22.963498999999999</v>
+      </c>
+      <c r="F72" s="15">
+        <v>50.028084</v>
+      </c>
+      <c r="G72" s="15">
+        <v>67.060181</v>
+      </c>
+      <c r="H72" s="15">
+        <v>122.925499</v>
+      </c>
+      <c r="I72" s="15">
+        <v>145.774216</v>
+      </c>
+      <c r="J72" s="15">
+        <v>164.458618</v>
+      </c>
+      <c r="K72" s="15">
+        <v>172.027512</v>
+      </c>
+      <c r="L72" s="15">
+        <v>187.80027799999999</v>
+      </c>
+      <c r="M72" s="15">
+        <v>191.80557300000001</v>
+      </c>
+      <c r="N72" s="15">
+        <v>197.37825000000001</v>
+      </c>
+      <c r="O72" s="15">
+        <v>201.906982</v>
+      </c>
+      <c r="P72" s="15">
+        <v>205.51829499999999</v>
+      </c>
+      <c r="Q72" s="15">
+        <v>210.45167499999999</v>
+      </c>
+      <c r="R72" s="15">
+        <v>213.12617499999999</v>
+      </c>
+      <c r="S72" s="15">
+        <v>215.15827899999999</v>
+      </c>
+      <c r="T72" s="15">
+        <v>217.506271</v>
+      </c>
+      <c r="U72" s="15">
+        <v>220.48054500000001</v>
+      </c>
+      <c r="V72" s="15">
+        <v>221.59854100000001</v>
+      </c>
+      <c r="W72" s="15">
+        <v>221.59854100000001</v>
+      </c>
+      <c r="X72" s="15">
+        <v>222.147537</v>
+      </c>
+      <c r="Y72" s="15">
+        <v>222.690628</v>
+      </c>
+      <c r="Z72" s="15">
+        <v>225.072327</v>
+      </c>
+      <c r="AA72" s="15">
+        <v>230.78398100000001</v>
+      </c>
+      <c r="AB72" s="15">
+        <v>233.93296799999999</v>
+      </c>
+      <c r="AC72" s="15">
+        <v>234.61296100000001</v>
+      </c>
+      <c r="AD72" s="15">
+        <v>236.15597500000001</v>
+      </c>
+      <c r="AE72" s="15">
+        <v>239.17146299999999</v>
+      </c>
+      <c r="AF72" s="15">
+        <v>239.796066</v>
+      </c>
+      <c r="AG72" s="15">
+        <v>239.796066</v>
+      </c>
+      <c r="AH72" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="15">
+        <v>1091.1827390000001</v>
+      </c>
+      <c r="D74" s="15">
+        <v>1119.685669</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1150.696899</v>
+      </c>
+      <c r="F74" s="15">
+        <v>1170.439331</v>
+      </c>
+      <c r="G74" s="15">
+        <v>1207.0386960000001</v>
+      </c>
+      <c r="H74" s="15">
+        <v>1210.7745359999999</v>
+      </c>
+      <c r="I74" s="15">
+        <v>1234.0447999999999</v>
+      </c>
+      <c r="J74" s="15">
+        <v>1254.4071039999999</v>
+      </c>
+      <c r="K74" s="15">
+        <v>1266.7567140000001</v>
+      </c>
+      <c r="L74" s="15">
+        <v>1271.5667719999999</v>
+      </c>
+      <c r="M74" s="15">
+        <v>1287.4423830000001</v>
+      </c>
+      <c r="N74" s="15">
+        <v>1296.907837</v>
+      </c>
+      <c r="O74" s="15">
+        <v>1309.171509</v>
+      </c>
+      <c r="P74" s="15">
+        <v>1321.1423339999999</v>
+      </c>
+      <c r="Q74" s="15">
+        <v>1337.8326420000001</v>
+      </c>
+      <c r="R74" s="15">
+        <v>1362.955933</v>
+      </c>
+      <c r="S74" s="15">
+        <v>1382.161255</v>
+      </c>
+      <c r="T74" s="15">
+        <v>1398.9907229999999</v>
+      </c>
+      <c r="U74" s="15">
+        <v>1416.3969729999999</v>
+      </c>
+      <c r="V74" s="15">
+        <v>1430.4941409999999</v>
+      </c>
+      <c r="W74" s="15">
+        <v>1449.7285159999999</v>
+      </c>
+      <c r="X74" s="15">
+        <v>1464.441284</v>
+      </c>
+      <c r="Y74" s="15">
+        <v>1482.8793949999999</v>
+      </c>
+      <c r="Z74" s="15">
+        <v>1503.1708980000001</v>
+      </c>
+      <c r="AA74" s="15">
+        <v>1522.87085</v>
+      </c>
+      <c r="AB74" s="15">
+        <v>1544.1854249999999</v>
+      </c>
+      <c r="AC74" s="15">
+        <v>1569.3443600000001</v>
+      </c>
+      <c r="AD74" s="15">
+        <v>1597.6007079999999</v>
+      </c>
+      <c r="AE74" s="15">
+        <v>1630.3870850000001</v>
+      </c>
+      <c r="AF74" s="15">
+        <v>1665.174683</v>
+      </c>
+      <c r="AG74" s="15">
+        <v>1692.7044679999999</v>
+      </c>
+      <c r="AH74" s="16">
+        <v>1.4742999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1.94556</v>
+      </c>
+      <c r="D77" s="13">
+        <v>1.9162760000000001</v>
+      </c>
+      <c r="E77" s="13">
+        <v>1.925017</v>
+      </c>
+      <c r="F77" s="13">
+        <v>1.922601</v>
+      </c>
+      <c r="G77" s="13">
+        <v>1.9269829999999999</v>
+      </c>
+      <c r="H77" s="13">
+        <v>1.926186</v>
+      </c>
+      <c r="I77" s="13">
+        <v>1.924083</v>
+      </c>
+      <c r="J77" s="13">
+        <v>1.920661</v>
+      </c>
+      <c r="K77" s="13">
+        <v>1.9165509999999999</v>
+      </c>
+      <c r="L77" s="13">
+        <v>1.9100619999999999</v>
+      </c>
+      <c r="M77" s="13">
+        <v>1.907287</v>
+      </c>
+      <c r="N77" s="13">
+        <v>1.9038330000000001</v>
+      </c>
+      <c r="O77" s="13">
+        <v>1.900576</v>
+      </c>
+      <c r="P77" s="13">
+        <v>1.8952560000000001</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>1.8917550000000001</v>
+      </c>
+      <c r="R77" s="13">
+        <v>1.890439</v>
+      </c>
+      <c r="S77" s="13">
+        <v>1.887616</v>
+      </c>
+      <c r="T77" s="13">
+        <v>1.88537</v>
+      </c>
+      <c r="U77" s="13">
+        <v>1.884536</v>
+      </c>
+      <c r="V77" s="13">
+        <v>1.883561</v>
+      </c>
+      <c r="W77" s="13">
+        <v>1.8798520000000001</v>
+      </c>
+      <c r="X77" s="13">
+        <v>1.8774770000000001</v>
+      </c>
+      <c r="Y77" s="13">
+        <v>1.876735</v>
+      </c>
+      <c r="Z77" s="13">
+        <v>1.8777509999999999</v>
+      </c>
+      <c r="AA77" s="13">
+        <v>1.8753010000000001</v>
+      </c>
+      <c r="AB77" s="13">
+        <v>1.8742350000000001</v>
+      </c>
+      <c r="AC77" s="13">
+        <v>1.8717600000000001</v>
+      </c>
+      <c r="AD77" s="13">
+        <v>1.868565</v>
+      </c>
+      <c r="AE77" s="13">
+        <v>1.866995</v>
+      </c>
+      <c r="AF77" s="13">
+        <v>1.865326</v>
+      </c>
+      <c r="AG77" s="13">
+        <v>1.8652629999999999</v>
+      </c>
+      <c r="AH77" s="14">
+        <v>-1.4040000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="D78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="E78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="F78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="G78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="H78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="I78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="K78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="L78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="M78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="N78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="O78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="P78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="Q78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="R78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="S78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="T78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="U78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="V78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="W78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="X78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="Y78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="Z78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="AA78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="AB78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="AC78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="AD78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="AE78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="AF78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="AG78" s="13">
+        <v>0.56876099999999996</v>
+      </c>
+      <c r="AH78" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="13">
+        <v>17.840422</v>
+      </c>
+      <c r="D79" s="13">
+        <v>18.414034000000001</v>
+      </c>
+      <c r="E79" s="13">
+        <v>18.744447999999998</v>
+      </c>
+      <c r="F79" s="13">
+        <v>19.040002999999999</v>
+      </c>
+      <c r="G79" s="13">
+        <v>19.390608</v>
+      </c>
+      <c r="H79" s="13">
+        <v>19.757415999999999</v>
+      </c>
+      <c r="I79" s="13">
+        <v>20.138280999999999</v>
+      </c>
+      <c r="J79" s="13">
+        <v>20.523817000000001</v>
+      </c>
+      <c r="K79" s="13">
+        <v>20.906796</v>
+      </c>
+      <c r="L79" s="13">
+        <v>21.285425</v>
+      </c>
+      <c r="M79" s="13">
+        <v>21.655716000000002</v>
+      </c>
+      <c r="N79" s="13">
+        <v>22.032509000000001</v>
+      </c>
+      <c r="O79" s="13">
+        <v>22.409348000000001</v>
+      </c>
+      <c r="P79" s="13">
+        <v>22.789431</v>
+      </c>
+      <c r="Q79" s="13">
+        <v>23.18235</v>
+      </c>
+      <c r="R79" s="13">
+        <v>23.596098000000001</v>
+      </c>
+      <c r="S79" s="13">
+        <v>24.022133</v>
+      </c>
+      <c r="T79" s="13">
+        <v>24.469906000000002</v>
+      </c>
+      <c r="U79" s="13">
+        <v>24.943709999999999</v>
+      </c>
+      <c r="V79" s="13">
+        <v>25.43655</v>
+      </c>
+      <c r="W79" s="13">
+        <v>25.943194999999999</v>
+      </c>
+      <c r="X79" s="13">
+        <v>26.494547000000001</v>
+      </c>
+      <c r="Y79" s="13">
+        <v>27.106615000000001</v>
+      </c>
+      <c r="Z79" s="13">
+        <v>27.799931999999998</v>
+      </c>
+      <c r="AA79" s="13">
+        <v>28.559950000000001</v>
+      </c>
+      <c r="AB79" s="13">
+        <v>29.406044000000001</v>
+      </c>
+      <c r="AC79" s="13">
+        <v>30.335108000000002</v>
+      </c>
+      <c r="AD79" s="13">
+        <v>31.345692</v>
+      </c>
+      <c r="AE79" s="13">
+        <v>32.447322999999997</v>
+      </c>
+      <c r="AF79" s="13">
+        <v>33.679141999999999</v>
+      </c>
+      <c r="AG79" s="13">
+        <v>35.076495999999999</v>
+      </c>
+      <c r="AH79" s="14">
+        <v>2.2790999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="13">
+        <v>2.8463500000000002</v>
+      </c>
+      <c r="D80" s="13">
+        <v>2.8697499999999998</v>
+      </c>
+      <c r="E80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="F80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="G80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="H80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="I80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="J80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="K80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="L80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="M80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="N80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="O80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="P80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="Q80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="R80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="S80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="T80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="U80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="V80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="W80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="X80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="Y80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="Z80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="AA80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="AB80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="AC80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="AD80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="AE80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="AF80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="AG80" s="13">
+        <v>2.88985</v>
+      </c>
+      <c r="AH80" s="14">
+        <v>5.0600000000000005E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="13">
+        <v>40.204830000000001</v>
+      </c>
+      <c r="D81" s="13">
+        <v>45.801537000000003</v>
+      </c>
+      <c r="E81" s="13">
+        <v>50.177376000000002</v>
+      </c>
+      <c r="F81" s="13">
+        <v>53.586945</v>
+      </c>
+      <c r="G81" s="13">
+        <v>56.823535999999997</v>
+      </c>
+      <c r="H81" s="13">
+        <v>60.726688000000003</v>
+      </c>
+      <c r="I81" s="13">
+        <v>64.043723999999997</v>
+      </c>
+      <c r="J81" s="13">
+        <v>68.181313000000003</v>
+      </c>
+      <c r="K81" s="13">
+        <v>71.735198999999994</v>
+      </c>
+      <c r="L81" s="13">
+        <v>75.260589999999993</v>
+      </c>
+      <c r="M81" s="13">
+        <v>78.723595000000003</v>
+      </c>
+      <c r="N81" s="13">
+        <v>82.729477000000003</v>
+      </c>
+      <c r="O81" s="13">
+        <v>86.037529000000006</v>
+      </c>
+      <c r="P81" s="13">
+        <v>89.811133999999996</v>
+      </c>
+      <c r="Q81" s="13">
+        <v>93.586371999999997</v>
+      </c>
+      <c r="R81" s="13">
+        <v>97.505814000000001</v>
+      </c>
+      <c r="S81" s="13">
+        <v>102.02861799999999</v>
+      </c>
+      <c r="T81" s="13">
+        <v>105.99028800000001</v>
+      </c>
+      <c r="U81" s="13">
+        <v>110.255112</v>
+      </c>
+      <c r="V81" s="13">
+        <v>114.541855</v>
+      </c>
+      <c r="W81" s="13">
+        <v>118.970917</v>
+      </c>
+      <c r="X81" s="13">
+        <v>123.353157</v>
+      </c>
+      <c r="Y81" s="13">
+        <v>127.818031</v>
+      </c>
+      <c r="Z81" s="13">
+        <v>132.41514599999999</v>
+      </c>
+      <c r="AA81" s="13">
+        <v>136.86402899999999</v>
+      </c>
+      <c r="AB81" s="13">
+        <v>141.62399300000001</v>
+      </c>
+      <c r="AC81" s="13">
+        <v>146.97782900000001</v>
+      </c>
+      <c r="AD81" s="13">
+        <v>151.49603300000001</v>
+      </c>
+      <c r="AE81" s="13">
+        <v>155.98623699999999</v>
+      </c>
+      <c r="AF81" s="13">
+        <v>160.290649</v>
+      </c>
+      <c r="AG81" s="13">
+        <v>164.92387400000001</v>
+      </c>
+      <c r="AH81" s="14">
+        <v>4.8174000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="13">
+        <v>0.63580000000000003</v>
+      </c>
+      <c r="D82" s="13">
+        <v>0.63580000000000003</v>
+      </c>
+      <c r="E82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="F82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="G82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="H82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="I82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="J82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="K82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="L82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="M82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="N82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="O82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="P82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="Q82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="R82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="S82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="T82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="U82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="V82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="W82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="X82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="Y82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="Z82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AA82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AB82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AC82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AD82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AE82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AF82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AG82" s="13">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AH82" s="14">
+        <v>2.5270000000000002E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="15">
+        <v>64.041725</v>
+      </c>
+      <c r="D83" s="15">
+        <v>70.206160999999994</v>
+      </c>
+      <c r="E83" s="15">
+        <v>74.991257000000004</v>
+      </c>
+      <c r="F83" s="15">
+        <v>78.693961999999999</v>
+      </c>
+      <c r="G83" s="15">
+        <v>82.285538000000003</v>
+      </c>
+      <c r="H83" s="15">
+        <v>86.554703000000003</v>
+      </c>
+      <c r="I83" s="15">
+        <v>90.250504000000006</v>
+      </c>
+      <c r="J83" s="15">
+        <v>94.770202999999995</v>
+      </c>
+      <c r="K83" s="15">
+        <v>98.702956999999998</v>
+      </c>
+      <c r="L83" s="15">
+        <v>102.600487</v>
+      </c>
+      <c r="M83" s="15">
+        <v>106.43100699999999</v>
+      </c>
+      <c r="N83" s="15">
+        <v>110.810226</v>
+      </c>
+      <c r="O83" s="15">
+        <v>114.49185900000001</v>
+      </c>
+      <c r="P83" s="15">
+        <v>118.64022799999999</v>
+      </c>
+      <c r="Q83" s="15">
+        <v>122.804886</v>
+      </c>
+      <c r="R83" s="15">
+        <v>127.136765</v>
+      </c>
+      <c r="S83" s="15">
+        <v>132.08277899999999</v>
+      </c>
+      <c r="T83" s="15">
+        <v>136.48997499999999</v>
+      </c>
+      <c r="U83" s="15">
+        <v>141.227768</v>
+      </c>
+      <c r="V83" s="15">
+        <v>146.00637800000001</v>
+      </c>
+      <c r="W83" s="15">
+        <v>150.93836999999999</v>
+      </c>
+      <c r="X83" s="15">
+        <v>155.869598</v>
+      </c>
+      <c r="Y83" s="15">
+        <v>160.945786</v>
+      </c>
+      <c r="Z83" s="15">
+        <v>166.237244</v>
+      </c>
+      <c r="AA83" s="15">
+        <v>171.44369499999999</v>
+      </c>
+      <c r="AB83" s="15">
+        <v>177.048676</v>
+      </c>
+      <c r="AC83" s="15">
+        <v>183.32910200000001</v>
+      </c>
+      <c r="AD83" s="15">
+        <v>188.85470599999999</v>
+      </c>
+      <c r="AE83" s="15">
+        <v>194.44497699999999</v>
+      </c>
+      <c r="AF83" s="15">
+        <v>199.979523</v>
+      </c>
+      <c r="AG83" s="15">
+        <v>206.01004</v>
+      </c>
+      <c r="AH83" s="16">
+        <v>3.9715E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="15">
+        <v>6.1937160000000002</v>
+      </c>
+      <c r="E85" s="15">
+        <v>10.978814</v>
+      </c>
+      <c r="F85" s="15">
+        <v>14.683935999999999</v>
+      </c>
+      <c r="G85" s="15">
+        <v>18.275517000000001</v>
+      </c>
+      <c r="H85" s="15">
+        <v>22.545470999999999</v>
+      </c>
+      <c r="I85" s="15">
+        <v>26.244617000000002</v>
+      </c>
+      <c r="J85" s="15">
+        <v>30.767748000000001</v>
+      </c>
+      <c r="K85" s="15">
+        <v>34.704608999999998</v>
+      </c>
+      <c r="L85" s="15">
+        <v>38.608631000000003</v>
+      </c>
+      <c r="M85" s="15">
+        <v>42.441955999999998</v>
+      </c>
+      <c r="N85" s="15">
+        <v>46.824618999999998</v>
+      </c>
+      <c r="O85" s="15">
+        <v>50.509506000000002</v>
+      </c>
+      <c r="P85" s="15">
+        <v>54.663204</v>
+      </c>
+      <c r="Q85" s="15">
+        <v>58.831370999999997</v>
+      </c>
+      <c r="R85" s="15">
+        <v>63.164593000000004</v>
+      </c>
+      <c r="S85" s="15">
+        <v>68.113403000000005</v>
+      </c>
+      <c r="T85" s="15">
+        <v>72.522850000000005</v>
+      </c>
+      <c r="U85" s="15">
+        <v>77.261459000000002</v>
+      </c>
+      <c r="V85" s="15">
+        <v>82.041015999999999</v>
+      </c>
+      <c r="W85" s="15">
+        <v>86.976746000000006</v>
+      </c>
+      <c r="X85" s="15">
+        <v>91.910331999999997</v>
+      </c>
+      <c r="Y85" s="15">
+        <v>96.987289000000004</v>
+      </c>
+      <c r="Z85" s="15">
+        <v>102.27872499999999</v>
+      </c>
+      <c r="AA85" s="15">
+        <v>107.487595</v>
+      </c>
+      <c r="AB85" s="15">
+        <v>113.093643</v>
+      </c>
+      <c r="AC85" s="15">
+        <v>119.37653400000001</v>
+      </c>
+      <c r="AD85" s="15">
+        <v>124.905342</v>
+      </c>
+      <c r="AE85" s="15">
+        <v>130.49717699999999</v>
+      </c>
+      <c r="AF85" s="15">
+        <v>136.07678200000001</v>
+      </c>
+      <c r="AG85" s="15">
+        <v>142.10734600000001</v>
+      </c>
+      <c r="AH85" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="29"/>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="29"/>
+      <c r="AD87" s="29"/>
+      <c r="AE87" s="29"/>
+      <c r="AF87" s="29"/>
+      <c r="AG87" s="29"/>
+      <c r="AH87" s="21"/>
+    </row>
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="27"/>
+      <c r="N112" s="27"/>
+      <c r="O112" s="27"/>
+      <c r="P112" s="27"/>
+      <c r="Q112" s="27"/>
+      <c r="R112" s="27"/>
+      <c r="S112" s="27"/>
+      <c r="T112" s="27"/>
+      <c r="U112" s="27"/>
+      <c r="V112" s="27"/>
+      <c r="W112" s="27"/>
+      <c r="X112" s="27"/>
+      <c r="Y112" s="27"/>
+      <c r="Z112" s="27"/>
+      <c r="AA112" s="27"/>
+      <c r="AB112" s="27"/>
+      <c r="AC112" s="27"/>
+      <c r="AD112" s="27"/>
+      <c r="AE112" s="27"/>
+      <c r="AF112" s="27"/>
+      <c r="AG112" s="27"/>
+      <c r="AH112" s="27"/>
+    </row>
+    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="27"/>
+      <c r="C308" s="27"/>
+      <c r="D308" s="27"/>
+      <c r="E308" s="27"/>
+      <c r="F308" s="27"/>
+      <c r="G308" s="27"/>
+      <c r="H308" s="27"/>
+      <c r="I308" s="27"/>
+      <c r="J308" s="27"/>
+      <c r="K308" s="27"/>
+      <c r="L308" s="27"/>
+      <c r="M308" s="27"/>
+      <c r="N308" s="27"/>
+      <c r="O308" s="27"/>
+      <c r="P308" s="27"/>
+      <c r="Q308" s="27"/>
+      <c r="R308" s="27"/>
+      <c r="S308" s="27"/>
+      <c r="T308" s="27"/>
+      <c r="U308" s="27"/>
+      <c r="V308" s="27"/>
+      <c r="W308" s="27"/>
+      <c r="X308" s="27"/>
+      <c r="Y308" s="27"/>
+      <c r="Z308" s="27"/>
+      <c r="AA308" s="27"/>
+      <c r="AB308" s="27"/>
+      <c r="AC308" s="27"/>
+      <c r="AD308" s="27"/>
+      <c r="AE308" s="27"/>
+      <c r="AF308" s="27"/>
+      <c r="AG308" s="27"/>
+      <c r="AH308" s="27"/>
+    </row>
+    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="27"/>
+      <c r="C511" s="27"/>
+      <c r="D511" s="27"/>
+      <c r="E511" s="27"/>
+      <c r="F511" s="27"/>
+      <c r="G511" s="27"/>
+      <c r="H511" s="27"/>
+      <c r="I511" s="27"/>
+      <c r="J511" s="27"/>
+      <c r="K511" s="27"/>
+      <c r="L511" s="27"/>
+      <c r="M511" s="27"/>
+      <c r="N511" s="27"/>
+      <c r="O511" s="27"/>
+      <c r="P511" s="27"/>
+      <c r="Q511" s="27"/>
+      <c r="R511" s="27"/>
+      <c r="S511" s="27"/>
+      <c r="T511" s="27"/>
+      <c r="U511" s="27"/>
+      <c r="V511" s="27"/>
+      <c r="W511" s="27"/>
+      <c r="X511" s="27"/>
+      <c r="Y511" s="27"/>
+      <c r="Z511" s="27"/>
+      <c r="AA511" s="27"/>
+      <c r="AB511" s="27"/>
+      <c r="AC511" s="27"/>
+      <c r="AD511" s="27"/>
+      <c r="AE511" s="27"/>
+      <c r="AF511" s="27"/>
+      <c r="AG511" s="27"/>
+      <c r="AH511" s="27"/>
+    </row>
+    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B712" s="27"/>
+      <c r="C712" s="27"/>
+      <c r="D712" s="27"/>
+      <c r="E712" s="27"/>
+      <c r="F712" s="27"/>
+      <c r="G712" s="27"/>
+      <c r="H712" s="27"/>
+      <c r="I712" s="27"/>
+      <c r="J712" s="27"/>
+      <c r="K712" s="27"/>
+      <c r="L712" s="27"/>
+      <c r="M712" s="27"/>
+      <c r="N712" s="27"/>
+      <c r="O712" s="27"/>
+      <c r="P712" s="27"/>
+      <c r="Q712" s="27"/>
+      <c r="R712" s="27"/>
+      <c r="S712" s="27"/>
+      <c r="T712" s="27"/>
+      <c r="U712" s="27"/>
+      <c r="V712" s="27"/>
+      <c r="W712" s="27"/>
+      <c r="X712" s="27"/>
+      <c r="Y712" s="27"/>
+      <c r="Z712" s="27"/>
+      <c r="AA712" s="27"/>
+      <c r="AB712" s="27"/>
+      <c r="AC712" s="27"/>
+      <c r="AD712" s="27"/>
+      <c r="AE712" s="27"/>
+      <c r="AF712" s="27"/>
+      <c r="AG712" s="27"/>
+      <c r="AH712" s="27"/>
+    </row>
+    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B887" s="27"/>
+      <c r="C887" s="27"/>
+      <c r="D887" s="27"/>
+      <c r="E887" s="27"/>
+      <c r="F887" s="27"/>
+      <c r="G887" s="27"/>
+      <c r="H887" s="27"/>
+      <c r="I887" s="27"/>
+      <c r="J887" s="27"/>
+      <c r="K887" s="27"/>
+      <c r="L887" s="27"/>
+      <c r="M887" s="27"/>
+      <c r="N887" s="27"/>
+      <c r="O887" s="27"/>
+      <c r="P887" s="27"/>
+      <c r="Q887" s="27"/>
+      <c r="R887" s="27"/>
+      <c r="S887" s="27"/>
+      <c r="T887" s="27"/>
+      <c r="U887" s="27"/>
+      <c r="V887" s="27"/>
+      <c r="W887" s="27"/>
+      <c r="X887" s="27"/>
+      <c r="Y887" s="27"/>
+      <c r="Z887" s="27"/>
+      <c r="AA887" s="27"/>
+      <c r="AB887" s="27"/>
+      <c r="AC887" s="27"/>
+      <c r="AD887" s="27"/>
+      <c r="AE887" s="27"/>
+      <c r="AF887" s="27"/>
+      <c r="AG887" s="27"/>
+      <c r="AH887" s="27"/>
+    </row>
+    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1100" s="27"/>
+      <c r="C1100" s="27"/>
+      <c r="D1100" s="27"/>
+      <c r="E1100" s="27"/>
+      <c r="F1100" s="27"/>
+      <c r="G1100" s="27"/>
+      <c r="H1100" s="27"/>
+      <c r="I1100" s="27"/>
+      <c r="J1100" s="27"/>
+      <c r="K1100" s="27"/>
+      <c r="L1100" s="27"/>
+      <c r="M1100" s="27"/>
+      <c r="N1100" s="27"/>
+      <c r="O1100" s="27"/>
+      <c r="P1100" s="27"/>
+      <c r="Q1100" s="27"/>
+      <c r="R1100" s="27"/>
+      <c r="S1100" s="27"/>
+      <c r="T1100" s="27"/>
+      <c r="U1100" s="27"/>
+      <c r="V1100" s="27"/>
+      <c r="W1100" s="27"/>
+      <c r="X1100" s="27"/>
+      <c r="Y1100" s="27"/>
+      <c r="Z1100" s="27"/>
+      <c r="AA1100" s="27"/>
+      <c r="AB1100" s="27"/>
+      <c r="AC1100" s="27"/>
+      <c r="AD1100" s="27"/>
+      <c r="AE1100" s="27"/>
+      <c r="AF1100" s="27"/>
+      <c r="AG1100" s="27"/>
+      <c r="AH1100" s="27"/>
+    </row>
+    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1227" s="27"/>
+      <c r="C1227" s="27"/>
+      <c r="D1227" s="27"/>
+      <c r="E1227" s="27"/>
+      <c r="F1227" s="27"/>
+      <c r="G1227" s="27"/>
+      <c r="H1227" s="27"/>
+      <c r="I1227" s="27"/>
+      <c r="J1227" s="27"/>
+      <c r="K1227" s="27"/>
+      <c r="L1227" s="27"/>
+      <c r="M1227" s="27"/>
+      <c r="N1227" s="27"/>
+      <c r="O1227" s="27"/>
+      <c r="P1227" s="27"/>
+      <c r="Q1227" s="27"/>
+      <c r="R1227" s="27"/>
+      <c r="S1227" s="27"/>
+      <c r="T1227" s="27"/>
+      <c r="U1227" s="27"/>
+      <c r="V1227" s="27"/>
+      <c r="W1227" s="27"/>
+      <c r="X1227" s="27"/>
+      <c r="Y1227" s="27"/>
+      <c r="Z1227" s="27"/>
+      <c r="AA1227" s="27"/>
+      <c r="AB1227" s="27"/>
+      <c r="AC1227" s="27"/>
+      <c r="AD1227" s="27"/>
+      <c r="AE1227" s="27"/>
+      <c r="AF1227" s="27"/>
+      <c r="AG1227" s="27"/>
+      <c r="AH1227" s="27"/>
+    </row>
+    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1390" s="27"/>
+      <c r="C1390" s="27"/>
+      <c r="D1390" s="27"/>
+      <c r="E1390" s="27"/>
+      <c r="F1390" s="27"/>
+      <c r="G1390" s="27"/>
+      <c r="H1390" s="27"/>
+      <c r="I1390" s="27"/>
+      <c r="J1390" s="27"/>
+      <c r="K1390" s="27"/>
+      <c r="L1390" s="27"/>
+      <c r="M1390" s="27"/>
+      <c r="N1390" s="27"/>
+      <c r="O1390" s="27"/>
+      <c r="P1390" s="27"/>
+      <c r="Q1390" s="27"/>
+      <c r="R1390" s="27"/>
+      <c r="S1390" s="27"/>
+      <c r="T1390" s="27"/>
+      <c r="U1390" s="27"/>
+      <c r="V1390" s="27"/>
+      <c r="W1390" s="27"/>
+      <c r="X1390" s="27"/>
+      <c r="Y1390" s="27"/>
+      <c r="Z1390" s="27"/>
+      <c r="AA1390" s="27"/>
+      <c r="AB1390" s="27"/>
+      <c r="AC1390" s="27"/>
+      <c r="AD1390" s="27"/>
+      <c r="AE1390" s="27"/>
+      <c r="AF1390" s="27"/>
+      <c r="AG1390" s="27"/>
+      <c r="AH1390" s="27"/>
+    </row>
+    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1502" s="27"/>
+      <c r="C1502" s="27"/>
+      <c r="D1502" s="27"/>
+      <c r="E1502" s="27"/>
+      <c r="F1502" s="27"/>
+      <c r="G1502" s="27"/>
+      <c r="H1502" s="27"/>
+      <c r="I1502" s="27"/>
+      <c r="J1502" s="27"/>
+      <c r="K1502" s="27"/>
+      <c r="L1502" s="27"/>
+      <c r="M1502" s="27"/>
+      <c r="N1502" s="27"/>
+      <c r="O1502" s="27"/>
+      <c r="P1502" s="27"/>
+      <c r="Q1502" s="27"/>
+      <c r="R1502" s="27"/>
+      <c r="S1502" s="27"/>
+      <c r="T1502" s="27"/>
+      <c r="U1502" s="27"/>
+      <c r="V1502" s="27"/>
+      <c r="W1502" s="27"/>
+      <c r="X1502" s="27"/>
+      <c r="Y1502" s="27"/>
+      <c r="Z1502" s="27"/>
+      <c r="AA1502" s="27"/>
+      <c r="AB1502" s="27"/>
+      <c r="AC1502" s="27"/>
+      <c r="AD1502" s="27"/>
+      <c r="AE1502" s="27"/>
+      <c r="AF1502" s="27"/>
+      <c r="AG1502" s="27"/>
+      <c r="AH1502" s="27"/>
+    </row>
+    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1604" s="27"/>
+      <c r="C1604" s="27"/>
+      <c r="D1604" s="27"/>
+      <c r="E1604" s="27"/>
+      <c r="F1604" s="27"/>
+      <c r="G1604" s="27"/>
+      <c r="H1604" s="27"/>
+      <c r="I1604" s="27"/>
+      <c r="J1604" s="27"/>
+      <c r="K1604" s="27"/>
+      <c r="L1604" s="27"/>
+      <c r="M1604" s="27"/>
+      <c r="N1604" s="27"/>
+      <c r="O1604" s="27"/>
+      <c r="P1604" s="27"/>
+      <c r="Q1604" s="27"/>
+      <c r="R1604" s="27"/>
+      <c r="S1604" s="27"/>
+      <c r="T1604" s="27"/>
+      <c r="U1604" s="27"/>
+      <c r="V1604" s="27"/>
+      <c r="W1604" s="27"/>
+      <c r="X1604" s="27"/>
+      <c r="Y1604" s="27"/>
+      <c r="Z1604" s="27"/>
+      <c r="AA1604" s="27"/>
+      <c r="AB1604" s="27"/>
+      <c r="AC1604" s="27"/>
+      <c r="AD1604" s="27"/>
+      <c r="AE1604" s="27"/>
+      <c r="AF1604" s="27"/>
+      <c r="AG1604" s="27"/>
+      <c r="AH1604" s="27"/>
+    </row>
+    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1698" s="27"/>
+      <c r="C1698" s="27"/>
+      <c r="D1698" s="27"/>
+      <c r="E1698" s="27"/>
+      <c r="F1698" s="27"/>
+      <c r="G1698" s="27"/>
+      <c r="H1698" s="27"/>
+      <c r="I1698" s="27"/>
+      <c r="J1698" s="27"/>
+      <c r="K1698" s="27"/>
+      <c r="L1698" s="27"/>
+      <c r="M1698" s="27"/>
+      <c r="N1698" s="27"/>
+      <c r="O1698" s="27"/>
+      <c r="P1698" s="27"/>
+      <c r="Q1698" s="27"/>
+      <c r="R1698" s="27"/>
+      <c r="S1698" s="27"/>
+      <c r="T1698" s="27"/>
+      <c r="U1698" s="27"/>
+      <c r="V1698" s="27"/>
+      <c r="W1698" s="27"/>
+      <c r="X1698" s="27"/>
+      <c r="Y1698" s="27"/>
+      <c r="Z1698" s="27"/>
+      <c r="AA1698" s="27"/>
+      <c r="AB1698" s="27"/>
+      <c r="AC1698" s="27"/>
+      <c r="AD1698" s="27"/>
+      <c r="AE1698" s="27"/>
+      <c r="AF1698" s="27"/>
+      <c r="AG1698" s="27"/>
+      <c r="AH1698" s="27"/>
+    </row>
+    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1945" s="27"/>
+      <c r="C1945" s="27"/>
+      <c r="D1945" s="27"/>
+      <c r="E1945" s="27"/>
+      <c r="F1945" s="27"/>
+      <c r="G1945" s="27"/>
+      <c r="H1945" s="27"/>
+      <c r="I1945" s="27"/>
+      <c r="J1945" s="27"/>
+      <c r="K1945" s="27"/>
+      <c r="L1945" s="27"/>
+      <c r="M1945" s="27"/>
+      <c r="N1945" s="27"/>
+      <c r="O1945" s="27"/>
+      <c r="P1945" s="27"/>
+      <c r="Q1945" s="27"/>
+      <c r="R1945" s="27"/>
+      <c r="S1945" s="27"/>
+      <c r="T1945" s="27"/>
+      <c r="U1945" s="27"/>
+      <c r="V1945" s="27"/>
+      <c r="W1945" s="27"/>
+      <c r="X1945" s="27"/>
+      <c r="Y1945" s="27"/>
+      <c r="Z1945" s="27"/>
+      <c r="AA1945" s="27"/>
+      <c r="AB1945" s="27"/>
+      <c r="AC1945" s="27"/>
+      <c r="AD1945" s="27"/>
+      <c r="AE1945" s="27"/>
+      <c r="AF1945" s="27"/>
+      <c r="AG1945" s="27"/>
+      <c r="AH1945" s="27"/>
+    </row>
+    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2031" s="27"/>
+      <c r="C2031" s="27"/>
+      <c r="D2031" s="27"/>
+      <c r="E2031" s="27"/>
+      <c r="F2031" s="27"/>
+      <c r="G2031" s="27"/>
+      <c r="H2031" s="27"/>
+      <c r="I2031" s="27"/>
+      <c r="J2031" s="27"/>
+      <c r="K2031" s="27"/>
+      <c r="L2031" s="27"/>
+      <c r="M2031" s="27"/>
+      <c r="N2031" s="27"/>
+      <c r="O2031" s="27"/>
+      <c r="P2031" s="27"/>
+      <c r="Q2031" s="27"/>
+      <c r="R2031" s="27"/>
+      <c r="S2031" s="27"/>
+      <c r="T2031" s="27"/>
+      <c r="U2031" s="27"/>
+      <c r="V2031" s="27"/>
+      <c r="W2031" s="27"/>
+      <c r="X2031" s="27"/>
+      <c r="Y2031" s="27"/>
+      <c r="Z2031" s="27"/>
+      <c r="AA2031" s="27"/>
+      <c r="AB2031" s="27"/>
+      <c r="AC2031" s="27"/>
+      <c r="AD2031" s="27"/>
+      <c r="AE2031" s="27"/>
+      <c r="AF2031" s="27"/>
+      <c r="AG2031" s="27"/>
+      <c r="AH2031" s="27"/>
+    </row>
+    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2153" s="27"/>
+      <c r="C2153" s="27"/>
+      <c r="D2153" s="27"/>
+      <c r="E2153" s="27"/>
+      <c r="F2153" s="27"/>
+      <c r="G2153" s="27"/>
+      <c r="H2153" s="27"/>
+      <c r="I2153" s="27"/>
+      <c r="J2153" s="27"/>
+      <c r="K2153" s="27"/>
+      <c r="L2153" s="27"/>
+      <c r="M2153" s="27"/>
+      <c r="N2153" s="27"/>
+      <c r="O2153" s="27"/>
+      <c r="P2153" s="27"/>
+      <c r="Q2153" s="27"/>
+      <c r="R2153" s="27"/>
+      <c r="S2153" s="27"/>
+      <c r="T2153" s="27"/>
+      <c r="U2153" s="27"/>
+      <c r="V2153" s="27"/>
+      <c r="W2153" s="27"/>
+      <c r="X2153" s="27"/>
+      <c r="Y2153" s="27"/>
+      <c r="Z2153" s="27"/>
+      <c r="AA2153" s="27"/>
+      <c r="AB2153" s="27"/>
+      <c r="AC2153" s="27"/>
+      <c r="AD2153" s="27"/>
+      <c r="AE2153" s="27"/>
+      <c r="AF2153" s="27"/>
+      <c r="AG2153" s="27"/>
+      <c r="AH2153" s="27"/>
+    </row>
+    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2317" s="27"/>
+      <c r="C2317" s="27"/>
+      <c r="D2317" s="27"/>
+      <c r="E2317" s="27"/>
+      <c r="F2317" s="27"/>
+      <c r="G2317" s="27"/>
+      <c r="H2317" s="27"/>
+      <c r="I2317" s="27"/>
+      <c r="J2317" s="27"/>
+      <c r="K2317" s="27"/>
+      <c r="L2317" s="27"/>
+      <c r="M2317" s="27"/>
+      <c r="N2317" s="27"/>
+      <c r="O2317" s="27"/>
+      <c r="P2317" s="27"/>
+      <c r="Q2317" s="27"/>
+      <c r="R2317" s="27"/>
+      <c r="S2317" s="27"/>
+      <c r="T2317" s="27"/>
+      <c r="U2317" s="27"/>
+      <c r="V2317" s="27"/>
+      <c r="W2317" s="27"/>
+      <c r="X2317" s="27"/>
+      <c r="Y2317" s="27"/>
+      <c r="Z2317" s="27"/>
+      <c r="AA2317" s="27"/>
+      <c r="AB2317" s="27"/>
+      <c r="AC2317" s="27"/>
+      <c r="AD2317" s="27"/>
+      <c r="AE2317" s="27"/>
+      <c r="AF2317" s="27"/>
+      <c r="AG2317" s="27"/>
+      <c r="AH2317" s="27"/>
+    </row>
+    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2419" s="27"/>
+      <c r="C2419" s="27"/>
+      <c r="D2419" s="27"/>
+      <c r="E2419" s="27"/>
+      <c r="F2419" s="27"/>
+      <c r="G2419" s="27"/>
+      <c r="H2419" s="27"/>
+      <c r="I2419" s="27"/>
+      <c r="J2419" s="27"/>
+      <c r="K2419" s="27"/>
+      <c r="L2419" s="27"/>
+      <c r="M2419" s="27"/>
+      <c r="N2419" s="27"/>
+      <c r="O2419" s="27"/>
+      <c r="P2419" s="27"/>
+      <c r="Q2419" s="27"/>
+      <c r="R2419" s="27"/>
+      <c r="S2419" s="27"/>
+      <c r="T2419" s="27"/>
+      <c r="U2419" s="27"/>
+      <c r="V2419" s="27"/>
+      <c r="W2419" s="27"/>
+      <c r="X2419" s="27"/>
+      <c r="Y2419" s="27"/>
+      <c r="Z2419" s="27"/>
+      <c r="AA2419" s="27"/>
+      <c r="AB2419" s="27"/>
+      <c r="AC2419" s="27"/>
+      <c r="AD2419" s="27"/>
+      <c r="AE2419" s="27"/>
+      <c r="AF2419" s="27"/>
+      <c r="AG2419" s="27"/>
+      <c r="AH2419" s="27"/>
+    </row>
+    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2509" s="27"/>
+      <c r="C2509" s="27"/>
+      <c r="D2509" s="27"/>
+      <c r="E2509" s="27"/>
+      <c r="F2509" s="27"/>
+      <c r="G2509" s="27"/>
+      <c r="H2509" s="27"/>
+      <c r="I2509" s="27"/>
+      <c r="J2509" s="27"/>
+      <c r="K2509" s="27"/>
+      <c r="L2509" s="27"/>
+      <c r="M2509" s="27"/>
+      <c r="N2509" s="27"/>
+      <c r="O2509" s="27"/>
+      <c r="P2509" s="27"/>
+      <c r="Q2509" s="27"/>
+      <c r="R2509" s="27"/>
+      <c r="S2509" s="27"/>
+      <c r="T2509" s="27"/>
+      <c r="U2509" s="27"/>
+      <c r="V2509" s="27"/>
+      <c r="W2509" s="27"/>
+      <c r="X2509" s="27"/>
+      <c r="Y2509" s="27"/>
+      <c r="Z2509" s="27"/>
+      <c r="AA2509" s="27"/>
+      <c r="AB2509" s="27"/>
+      <c r="AC2509" s="27"/>
+      <c r="AD2509" s="27"/>
+      <c r="AE2509" s="27"/>
+      <c r="AF2509" s="27"/>
+      <c r="AG2509" s="27"/>
+      <c r="AH2509" s="27"/>
+    </row>
+    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2598" s="27"/>
+      <c r="C2598" s="27"/>
+      <c r="D2598" s="27"/>
+      <c r="E2598" s="27"/>
+      <c r="F2598" s="27"/>
+      <c r="G2598" s="27"/>
+      <c r="H2598" s="27"/>
+      <c r="I2598" s="27"/>
+      <c r="J2598" s="27"/>
+      <c r="K2598" s="27"/>
+      <c r="L2598" s="27"/>
+      <c r="M2598" s="27"/>
+      <c r="N2598" s="27"/>
+      <c r="O2598" s="27"/>
+      <c r="P2598" s="27"/>
+      <c r="Q2598" s="27"/>
+      <c r="R2598" s="27"/>
+      <c r="S2598" s="27"/>
+      <c r="T2598" s="27"/>
+      <c r="U2598" s="27"/>
+      <c r="V2598" s="27"/>
+      <c r="W2598" s="27"/>
+      <c r="X2598" s="27"/>
+      <c r="Y2598" s="27"/>
+      <c r="Z2598" s="27"/>
+      <c r="AA2598" s="27"/>
+      <c r="AB2598" s="27"/>
+      <c r="AC2598" s="27"/>
+      <c r="AD2598" s="27"/>
+      <c r="AE2598" s="27"/>
+      <c r="AF2598" s="27"/>
+      <c r="AG2598" s="27"/>
+      <c r="AH2598" s="27"/>
+    </row>
+    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2719" s="27"/>
+      <c r="C2719" s="27"/>
+      <c r="D2719" s="27"/>
+      <c r="E2719" s="27"/>
+      <c r="F2719" s="27"/>
+      <c r="G2719" s="27"/>
+      <c r="H2719" s="27"/>
+      <c r="I2719" s="27"/>
+      <c r="J2719" s="27"/>
+      <c r="K2719" s="27"/>
+      <c r="L2719" s="27"/>
+      <c r="M2719" s="27"/>
+      <c r="N2719" s="27"/>
+      <c r="O2719" s="27"/>
+      <c r="P2719" s="27"/>
+      <c r="Q2719" s="27"/>
+      <c r="R2719" s="27"/>
+      <c r="S2719" s="27"/>
+      <c r="T2719" s="27"/>
+      <c r="U2719" s="27"/>
+      <c r="V2719" s="27"/>
+      <c r="W2719" s="27"/>
+      <c r="X2719" s="27"/>
+      <c r="Y2719" s="27"/>
+      <c r="Z2719" s="27"/>
+      <c r="AA2719" s="27"/>
+      <c r="AB2719" s="27"/>
+      <c r="AC2719" s="27"/>
+      <c r="AD2719" s="27"/>
+      <c r="AE2719" s="27"/>
+      <c r="AF2719" s="27"/>
+      <c r="AG2719" s="27"/>
+      <c r="AH2719" s="27"/>
+    </row>
+    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2837" s="27"/>
+      <c r="C2837" s="27"/>
+      <c r="D2837" s="27"/>
+      <c r="E2837" s="27"/>
+      <c r="F2837" s="27"/>
+      <c r="G2837" s="27"/>
+      <c r="H2837" s="27"/>
+      <c r="I2837" s="27"/>
+      <c r="J2837" s="27"/>
+      <c r="K2837" s="27"/>
+      <c r="L2837" s="27"/>
+      <c r="M2837" s="27"/>
+      <c r="N2837" s="27"/>
+      <c r="O2837" s="27"/>
+      <c r="P2837" s="27"/>
+      <c r="Q2837" s="27"/>
+      <c r="R2837" s="27"/>
+      <c r="S2837" s="27"/>
+      <c r="T2837" s="27"/>
+      <c r="U2837" s="27"/>
+      <c r="V2837" s="27"/>
+      <c r="W2837" s="27"/>
+      <c r="X2837" s="27"/>
+      <c r="Y2837" s="27"/>
+      <c r="Z2837" s="27"/>
+      <c r="AA2837" s="27"/>
+      <c r="AB2837" s="27"/>
+      <c r="AC2837" s="27"/>
+      <c r="AD2837" s="27"/>
+      <c r="AE2837" s="27"/>
+      <c r="AF2837" s="27"/>
+      <c r="AG2837" s="27"/>
+      <c r="AH2837" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B87:AG87"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B2837:AH2837"/>
+    <mergeCell ref="B2153:AH2153"/>
+    <mergeCell ref="B2317:AH2317"/>
+    <mergeCell ref="B2419:AH2419"/>
+    <mergeCell ref="B2509:AH2509"/>
+    <mergeCell ref="B2598:AH2598"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="F1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="G1">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="H1">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="I1">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="J1">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="K1">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="L1">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="M1">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="N1">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="O1">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="P1">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="Q1">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="R1">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="S1">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="T1">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="U1">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="V1">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="W1">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="X1">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="Y1">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="Z1">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="AA1">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="AB1">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="AC1">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="AD1">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="AE1">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="AF1">
-        <v>2046</v>
-      </c>
-      <c r="AG1">
-        <v>2047</v>
-      </c>
-      <c r="AH1">
-        <v>2048</v>
-      </c>
-      <c r="AI1">
-        <v>2049</v>
-      </c>
-      <c r="AJ1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!C$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!D$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!E$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!F$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!G$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!H$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!I$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!J$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="J2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!K$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="K2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!L$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="L2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!M$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!N$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="N2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!O$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="O2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!P$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="P2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!Q$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="Q2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!R$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="R2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!S$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="S2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!T$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="T2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!U$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="U2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!V$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="V2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!W$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="W2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!X$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="X2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!Y$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="Y2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!Z$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="Z2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!AA$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="AA2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!AB$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="AB2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!AC$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="AC2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!AD$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="AD2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!AE$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="AE2" s="4">
-        <v>0</v>
+        <f>'AEO Table 9'!AF$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
       </c>
       <c r="AF2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>0</v>
-      </c>
+        <f>'AEO Table 9'!AG$22*gigawatts_to_megawatts</f>
+        <v>22778.303</v>
+      </c>
+      <c r="AG2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
+++ b/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\elec\BPHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/elec/BPHC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2701B040-E8F6-4B5E-87A7-9ED41B286E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA08199-9104-EE4B-96AA-0DCE0D2EFAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="900" windowWidth="20265" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="900" windowWidth="20260" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="140">
   <si>
     <t>BPHC BAU Pumped Hydro Capacity</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Energy Information Administration</t>
-  </si>
-  <si>
-    <t>Table 9, Row "Pumped Storage"</t>
-  </si>
-  <si>
     <t>9. Electricity Generating Capacity</t>
   </si>
   <si>
@@ -457,7 +451,10 @@
     <t>AEO2021 National Energy Modeling System run highogs.d120120a. Projections:  EIA, AEO2021 National Energy Modeling System run highogs.d120120a.</t>
   </si>
   <si>
-    <t>https://www.eia.gov/outlooks/aeo/tables_side.php</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>No pumped hydro capacity in Mexico</t>
   </si>
 </sst>
 </file>
@@ -525,6 +522,7 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -535,6 +533,7 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -673,11 +672,11 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="7" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1027,58 +1026,46 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -1098,15 +1085,15 @@
       <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1" s="9">
         <v>2020</v>
@@ -1202,58 +1189,58 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -1261,26 +1248,26 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1314,12 +1301,12 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="9">
         <v>2020</v>
@@ -1415,26 +1402,26 @@
         <v>2050</v>
       </c>
       <c r="AH13" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="C17" s="13">
         <v>217.319931</v>
@@ -1533,12 +1520,12 @@
         <v>-3.5593E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="13">
         <v>72.645202999999995</v>
@@ -1637,12 +1624,12 @@
         <v>-1.1639E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="13">
         <v>245.41911300000001</v>
@@ -1741,12 +1728,12 @@
         <v>2.2079999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="13">
         <v>139.99884</v>
@@ -1845,12 +1832,12 @@
         <v>2.6945E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="13">
         <v>97.120911000000007</v>
@@ -1949,12 +1936,12 @@
         <v>-2.7585999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="24">
         <v>22.778303000000001</v>
@@ -2053,12 +2040,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="13">
         <v>3.1509999999999998</v>
@@ -2157,12 +2144,12 @@
         <v>5.9369999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="13">
         <v>0.20419999999999999</v>
@@ -2261,12 +2248,12 @@
         <v>4.4720000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="13">
         <v>263.93090799999999</v>
@@ -2365,12 +2352,12 @@
         <v>2.9822000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="13">
         <v>0</v>
@@ -2466,15 +2453,15 @@
         <v>36.505851999999997</v>
       </c>
       <c r="AH26" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="15">
         <v>1062.568481</v>
@@ -2573,17 +2560,17 @@
         <v>1.5070999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="13">
         <v>1.8878999999999999</v>
@@ -2682,12 +2669,12 @@
         <v>-1.9059999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="13">
         <v>0.62180000000000002</v>
@@ -2786,12 +2773,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="13">
         <v>21.979706</v>
@@ -2890,12 +2877,12 @@
         <v>-2.72E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" s="13">
         <v>3.1476000000000002</v>
@@ -2994,12 +2981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="13">
         <v>0.97719999999999996</v>
@@ -3098,12 +3085,12 @@
         <v>6.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="15">
         <v>28.614205999999999</v>
@@ -3202,20 +3189,20 @@
         <v>-3.3E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D37" s="13">
         <v>0</v>
@@ -3308,18 +3295,18 @@
         <v>0</v>
       </c>
       <c r="AH37" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D38" s="13">
         <v>0</v>
@@ -3412,18 +3399,18 @@
         <v>0</v>
       </c>
       <c r="AH38" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="13">
         <v>3.3792</v>
@@ -3516,18 +3503,18 @@
         <v>17.000202000000002</v>
       </c>
       <c r="AH39" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="13">
         <v>3.2778</v>
@@ -3620,18 +3607,18 @@
         <v>4.5458990000000004</v>
       </c>
       <c r="AH40" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="13">
         <v>1.1000000000000001</v>
@@ -3724,18 +3711,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AH41" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="13">
         <v>0</v>
@@ -3828,18 +3815,18 @@
         <v>0</v>
       </c>
       <c r="AH42" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="13">
         <v>3.7745000000000002</v>
@@ -3932,18 +3919,18 @@
         <v>12.9628</v>
       </c>
       <c r="AH43" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D44" s="13">
         <v>2.6100000000000002E-2</v>
@@ -4036,18 +4023,18 @@
         <v>2.6100000000000002E-2</v>
       </c>
       <c r="AH44" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="D45" s="13">
         <v>19.650895999999999</v>
@@ -4140,18 +4127,18 @@
         <v>55.921703000000001</v>
       </c>
       <c r="AH45" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
@@ -4244,18 +4231,18 @@
         <v>0</v>
       </c>
       <c r="AH46" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" s="15">
         <v>31.208511000000001</v>
@@ -4348,23 +4335,23 @@
         <v>92.656730999999994</v>
       </c>
       <c r="AH47" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49" s="13">
         <v>0</v>
@@ -4457,18 +4444,18 @@
         <v>0</v>
       </c>
       <c r="AH49" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50" s="13">
         <v>0</v>
@@ -4561,18 +4548,18 @@
         <v>0</v>
       </c>
       <c r="AH50" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D51" s="13">
         <v>0</v>
@@ -4665,18 +4652,18 @@
         <v>219.86515800000001</v>
       </c>
       <c r="AH51" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52" s="13">
         <v>8.7081459999999993</v>
@@ -4769,18 +4756,18 @@
         <v>170.64920000000001</v>
       </c>
       <c r="AH52" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" s="13">
         <v>0</v>
@@ -4873,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="AH53" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" s="13">
         <v>0</v>
@@ -4977,18 +4964,18 @@
         <v>0</v>
       </c>
       <c r="AH54" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D55" s="13">
         <v>0</v>
@@ -5081,18 +5068,18 @@
         <v>1.666782</v>
       </c>
       <c r="AH55" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56" s="13">
         <v>0</v>
@@ -5185,18 +5172,18 @@
         <v>4.2449999999999996E-3</v>
       </c>
       <c r="AH56" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="D57" s="13">
         <v>0.100994</v>
@@ -5289,18 +5276,18 @@
         <v>317.91125499999998</v>
       </c>
       <c r="AH57" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58" s="13">
         <v>0</v>
@@ -5393,18 +5380,18 @@
         <v>36.505851999999997</v>
       </c>
       <c r="AH58" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" s="15">
         <v>8.8091390000000001</v>
@@ -5497,18 +5484,18 @@
         <v>746.60253899999998</v>
       </c>
       <c r="AH59" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" s="15">
         <v>40.017651000000001</v>
@@ -5601,23 +5588,23 @@
         <v>839.259277</v>
       </c>
       <c r="AH60" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D63" s="13">
         <v>4.5084</v>
@@ -5710,18 +5697,18 @@
         <v>128.09979200000001</v>
       </c>
       <c r="AH63" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D64" s="13">
         <v>1.1951000000000001</v>
@@ -5814,18 +5801,18 @@
         <v>37.574706999999997</v>
       </c>
       <c r="AH64" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65" s="13">
         <v>5.6000000000000001E-2</v>
@@ -5918,18 +5905,18 @@
         <v>9.9011019999999998</v>
       </c>
       <c r="AH65" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D66" s="13">
         <v>1.8800000000000001E-2</v>
@@ -6022,18 +6009,18 @@
         <v>4.3529010000000001</v>
       </c>
       <c r="AH66" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D67" s="13">
         <v>5.7363</v>
@@ -6126,18 +6113,18 @@
         <v>59.417895999999999</v>
       </c>
       <c r="AH67" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D68" s="13">
         <v>0</v>
@@ -6230,18 +6217,18 @@
         <v>0</v>
       </c>
       <c r="AH68" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D69" s="13">
         <v>0</v>
@@ -6334,18 +6321,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AH69" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D70" s="13">
         <v>0</v>
@@ -6438,18 +6425,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="AH70" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="D71" s="13">
         <v>0</v>
@@ -6542,18 +6529,18 @@
         <v>0.40960000000000002</v>
       </c>
       <c r="AH71" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D72" s="15">
         <v>11.514602999999999</v>
@@ -6646,15 +6633,15 @@
         <v>239.796066</v>
       </c>
       <c r="AH72" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C74" s="15">
         <v>1091.1827390000001</v>
@@ -6753,17 +6740,17 @@
         <v>1.4742999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C77" s="13">
         <v>1.94556</v>
@@ -6862,12 +6849,12 @@
         <v>-1.4040000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C78" s="13">
         <v>0.56876099999999996</v>
@@ -6966,12 +6953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C79" s="13">
         <v>17.840422</v>
@@ -7070,12 +7057,12 @@
         <v>2.2790999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C80" s="13">
         <v>2.8463500000000002</v>
@@ -7174,12 +7161,12 @@
         <v>5.0600000000000005E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81" s="13">
         <v>40.204830000000001</v>
@@ -7278,12 +7265,12 @@
         <v>4.8174000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C82" s="13">
         <v>0.63580000000000003</v>
@@ -7382,12 +7369,12 @@
         <v>2.5270000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C83" s="15">
         <v>64.041725</v>
@@ -7486,15 +7473,15 @@
         <v>3.9715E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D85" s="15">
         <v>6.1937160000000002</v>
@@ -7587,890 +7574,890 @@
         <v>142.10734600000001</v>
       </c>
       <c r="AH85" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="28"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="28"/>
+      <c r="W87" s="28"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="28"/>
+      <c r="AA87" s="28"/>
+      <c r="AB87" s="28"/>
+      <c r="AC87" s="28"/>
+      <c r="AD87" s="28"/>
+      <c r="AE87" s="28"/>
+      <c r="AF87" s="28"/>
+      <c r="AG87" s="28"/>
+      <c r="AH87" s="21"/>
+    </row>
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="29"/>
-      <c r="Y87" s="29"/>
-      <c r="Z87" s="29"/>
-      <c r="AA87" s="29"/>
-      <c r="AB87" s="29"/>
-      <c r="AC87" s="29"/>
-      <c r="AD87" s="29"/>
-      <c r="AE87" s="29"/>
-      <c r="AF87" s="29"/>
-      <c r="AG87" s="29"/>
-      <c r="AH87" s="21"/>
-    </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
+    </row>
+    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B92" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B101" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B102" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
+    <row r="105" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B102" s="7" t="s">
+    <row r="106" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="103" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="7" t="s">
+    <row r="107" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="7" t="s">
+    <row r="108" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="s">
+    <row r="109" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="7" t="s">
+    <row r="110" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="109" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="7" t="s">
+    <row r="111" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="27"/>
-      <c r="O112" s="27"/>
-      <c r="P112" s="27"/>
-      <c r="Q112" s="27"/>
-      <c r="R112" s="27"/>
-      <c r="S112" s="27"/>
-      <c r="T112" s="27"/>
-      <c r="U112" s="27"/>
-      <c r="V112" s="27"/>
-      <c r="W112" s="27"/>
-      <c r="X112" s="27"/>
-      <c r="Y112" s="27"/>
-      <c r="Z112" s="27"/>
-      <c r="AA112" s="27"/>
-      <c r="AB112" s="27"/>
-      <c r="AC112" s="27"/>
-      <c r="AD112" s="27"/>
-      <c r="AE112" s="27"/>
-      <c r="AF112" s="27"/>
-      <c r="AG112" s="27"/>
-      <c r="AH112" s="27"/>
-    </row>
-    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="27"/>
-      <c r="C308" s="27"/>
-      <c r="D308" s="27"/>
-      <c r="E308" s="27"/>
-      <c r="F308" s="27"/>
-      <c r="G308" s="27"/>
-      <c r="H308" s="27"/>
-      <c r="I308" s="27"/>
-      <c r="J308" s="27"/>
-      <c r="K308" s="27"/>
-      <c r="L308" s="27"/>
-      <c r="M308" s="27"/>
-      <c r="N308" s="27"/>
-      <c r="O308" s="27"/>
-      <c r="P308" s="27"/>
-      <c r="Q308" s="27"/>
-      <c r="R308" s="27"/>
-      <c r="S308" s="27"/>
-      <c r="T308" s="27"/>
-      <c r="U308" s="27"/>
-      <c r="V308" s="27"/>
-      <c r="W308" s="27"/>
-      <c r="X308" s="27"/>
-      <c r="Y308" s="27"/>
-      <c r="Z308" s="27"/>
-      <c r="AA308" s="27"/>
-      <c r="AB308" s="27"/>
-      <c r="AC308" s="27"/>
-      <c r="AD308" s="27"/>
-      <c r="AE308" s="27"/>
-      <c r="AF308" s="27"/>
-      <c r="AG308" s="27"/>
-      <c r="AH308" s="27"/>
-    </row>
-    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="27"/>
-      <c r="C511" s="27"/>
-      <c r="D511" s="27"/>
-      <c r="E511" s="27"/>
-      <c r="F511" s="27"/>
-      <c r="G511" s="27"/>
-      <c r="H511" s="27"/>
-      <c r="I511" s="27"/>
-      <c r="J511" s="27"/>
-      <c r="K511" s="27"/>
-      <c r="L511" s="27"/>
-      <c r="M511" s="27"/>
-      <c r="N511" s="27"/>
-      <c r="O511" s="27"/>
-      <c r="P511" s="27"/>
-      <c r="Q511" s="27"/>
-      <c r="R511" s="27"/>
-      <c r="S511" s="27"/>
-      <c r="T511" s="27"/>
-      <c r="U511" s="27"/>
-      <c r="V511" s="27"/>
-      <c r="W511" s="27"/>
-      <c r="X511" s="27"/>
-      <c r="Y511" s="27"/>
-      <c r="Z511" s="27"/>
-      <c r="AA511" s="27"/>
-      <c r="AB511" s="27"/>
-      <c r="AC511" s="27"/>
-      <c r="AD511" s="27"/>
-      <c r="AE511" s="27"/>
-      <c r="AF511" s="27"/>
-      <c r="AG511" s="27"/>
-      <c r="AH511" s="27"/>
-    </row>
-    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="27"/>
-      <c r="C712" s="27"/>
-      <c r="D712" s="27"/>
-      <c r="E712" s="27"/>
-      <c r="F712" s="27"/>
-      <c r="G712" s="27"/>
-      <c r="H712" s="27"/>
-      <c r="I712" s="27"/>
-      <c r="J712" s="27"/>
-      <c r="K712" s="27"/>
-      <c r="L712" s="27"/>
-      <c r="M712" s="27"/>
-      <c r="N712" s="27"/>
-      <c r="O712" s="27"/>
-      <c r="P712" s="27"/>
-      <c r="Q712" s="27"/>
-      <c r="R712" s="27"/>
-      <c r="S712" s="27"/>
-      <c r="T712" s="27"/>
-      <c r="U712" s="27"/>
-      <c r="V712" s="27"/>
-      <c r="W712" s="27"/>
-      <c r="X712" s="27"/>
-      <c r="Y712" s="27"/>
-      <c r="Z712" s="27"/>
-      <c r="AA712" s="27"/>
-      <c r="AB712" s="27"/>
-      <c r="AC712" s="27"/>
-      <c r="AD712" s="27"/>
-      <c r="AE712" s="27"/>
-      <c r="AF712" s="27"/>
-      <c r="AG712" s="27"/>
-      <c r="AH712" s="27"/>
-    </row>
-    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="27"/>
-      <c r="C887" s="27"/>
-      <c r="D887" s="27"/>
-      <c r="E887" s="27"/>
-      <c r="F887" s="27"/>
-      <c r="G887" s="27"/>
-      <c r="H887" s="27"/>
-      <c r="I887" s="27"/>
-      <c r="J887" s="27"/>
-      <c r="K887" s="27"/>
-      <c r="L887" s="27"/>
-      <c r="M887" s="27"/>
-      <c r="N887" s="27"/>
-      <c r="O887" s="27"/>
-      <c r="P887" s="27"/>
-      <c r="Q887" s="27"/>
-      <c r="R887" s="27"/>
-      <c r="S887" s="27"/>
-      <c r="T887" s="27"/>
-      <c r="U887" s="27"/>
-      <c r="V887" s="27"/>
-      <c r="W887" s="27"/>
-      <c r="X887" s="27"/>
-      <c r="Y887" s="27"/>
-      <c r="Z887" s="27"/>
-      <c r="AA887" s="27"/>
-      <c r="AB887" s="27"/>
-      <c r="AC887" s="27"/>
-      <c r="AD887" s="27"/>
-      <c r="AE887" s="27"/>
-      <c r="AF887" s="27"/>
-      <c r="AG887" s="27"/>
-      <c r="AH887" s="27"/>
-    </row>
-    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="27"/>
-      <c r="C1100" s="27"/>
-      <c r="D1100" s="27"/>
-      <c r="E1100" s="27"/>
-      <c r="F1100" s="27"/>
-      <c r="G1100" s="27"/>
-      <c r="H1100" s="27"/>
-      <c r="I1100" s="27"/>
-      <c r="J1100" s="27"/>
-      <c r="K1100" s="27"/>
-      <c r="L1100" s="27"/>
-      <c r="M1100" s="27"/>
-      <c r="N1100" s="27"/>
-      <c r="O1100" s="27"/>
-      <c r="P1100" s="27"/>
-      <c r="Q1100" s="27"/>
-      <c r="R1100" s="27"/>
-      <c r="S1100" s="27"/>
-      <c r="T1100" s="27"/>
-      <c r="U1100" s="27"/>
-      <c r="V1100" s="27"/>
-      <c r="W1100" s="27"/>
-      <c r="X1100" s="27"/>
-      <c r="Y1100" s="27"/>
-      <c r="Z1100" s="27"/>
-      <c r="AA1100" s="27"/>
-      <c r="AB1100" s="27"/>
-      <c r="AC1100" s="27"/>
-      <c r="AD1100" s="27"/>
-      <c r="AE1100" s="27"/>
-      <c r="AF1100" s="27"/>
-      <c r="AG1100" s="27"/>
-      <c r="AH1100" s="27"/>
-    </row>
-    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="27"/>
-      <c r="C1227" s="27"/>
-      <c r="D1227" s="27"/>
-      <c r="E1227" s="27"/>
-      <c r="F1227" s="27"/>
-      <c r="G1227" s="27"/>
-      <c r="H1227" s="27"/>
-      <c r="I1227" s="27"/>
-      <c r="J1227" s="27"/>
-      <c r="K1227" s="27"/>
-      <c r="L1227" s="27"/>
-      <c r="M1227" s="27"/>
-      <c r="N1227" s="27"/>
-      <c r="O1227" s="27"/>
-      <c r="P1227" s="27"/>
-      <c r="Q1227" s="27"/>
-      <c r="R1227" s="27"/>
-      <c r="S1227" s="27"/>
-      <c r="T1227" s="27"/>
-      <c r="U1227" s="27"/>
-      <c r="V1227" s="27"/>
-      <c r="W1227" s="27"/>
-      <c r="X1227" s="27"/>
-      <c r="Y1227" s="27"/>
-      <c r="Z1227" s="27"/>
-      <c r="AA1227" s="27"/>
-      <c r="AB1227" s="27"/>
-      <c r="AC1227" s="27"/>
-      <c r="AD1227" s="27"/>
-      <c r="AE1227" s="27"/>
-      <c r="AF1227" s="27"/>
-      <c r="AG1227" s="27"/>
-      <c r="AH1227" s="27"/>
-    </row>
-    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="27"/>
-      <c r="C1390" s="27"/>
-      <c r="D1390" s="27"/>
-      <c r="E1390" s="27"/>
-      <c r="F1390" s="27"/>
-      <c r="G1390" s="27"/>
-      <c r="H1390" s="27"/>
-      <c r="I1390" s="27"/>
-      <c r="J1390" s="27"/>
-      <c r="K1390" s="27"/>
-      <c r="L1390" s="27"/>
-      <c r="M1390" s="27"/>
-      <c r="N1390" s="27"/>
-      <c r="O1390" s="27"/>
-      <c r="P1390" s="27"/>
-      <c r="Q1390" s="27"/>
-      <c r="R1390" s="27"/>
-      <c r="S1390" s="27"/>
-      <c r="T1390" s="27"/>
-      <c r="U1390" s="27"/>
-      <c r="V1390" s="27"/>
-      <c r="W1390" s="27"/>
-      <c r="X1390" s="27"/>
-      <c r="Y1390" s="27"/>
-      <c r="Z1390" s="27"/>
-      <c r="AA1390" s="27"/>
-      <c r="AB1390" s="27"/>
-      <c r="AC1390" s="27"/>
-      <c r="AD1390" s="27"/>
-      <c r="AE1390" s="27"/>
-      <c r="AF1390" s="27"/>
-      <c r="AG1390" s="27"/>
-      <c r="AH1390" s="27"/>
-    </row>
-    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="27"/>
-      <c r="C1502" s="27"/>
-      <c r="D1502" s="27"/>
-      <c r="E1502" s="27"/>
-      <c r="F1502" s="27"/>
-      <c r="G1502" s="27"/>
-      <c r="H1502" s="27"/>
-      <c r="I1502" s="27"/>
-      <c r="J1502" s="27"/>
-      <c r="K1502" s="27"/>
-      <c r="L1502" s="27"/>
-      <c r="M1502" s="27"/>
-      <c r="N1502" s="27"/>
-      <c r="O1502" s="27"/>
-      <c r="P1502" s="27"/>
-      <c r="Q1502" s="27"/>
-      <c r="R1502" s="27"/>
-      <c r="S1502" s="27"/>
-      <c r="T1502" s="27"/>
-      <c r="U1502" s="27"/>
-      <c r="V1502" s="27"/>
-      <c r="W1502" s="27"/>
-      <c r="X1502" s="27"/>
-      <c r="Y1502" s="27"/>
-      <c r="Z1502" s="27"/>
-      <c r="AA1502" s="27"/>
-      <c r="AB1502" s="27"/>
-      <c r="AC1502" s="27"/>
-      <c r="AD1502" s="27"/>
-      <c r="AE1502" s="27"/>
-      <c r="AF1502" s="27"/>
-      <c r="AG1502" s="27"/>
-      <c r="AH1502" s="27"/>
-    </row>
-    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="27"/>
-      <c r="C1604" s="27"/>
-      <c r="D1604" s="27"/>
-      <c r="E1604" s="27"/>
-      <c r="F1604" s="27"/>
-      <c r="G1604" s="27"/>
-      <c r="H1604" s="27"/>
-      <c r="I1604" s="27"/>
-      <c r="J1604" s="27"/>
-      <c r="K1604" s="27"/>
-      <c r="L1604" s="27"/>
-      <c r="M1604" s="27"/>
-      <c r="N1604" s="27"/>
-      <c r="O1604" s="27"/>
-      <c r="P1604" s="27"/>
-      <c r="Q1604" s="27"/>
-      <c r="R1604" s="27"/>
-      <c r="S1604" s="27"/>
-      <c r="T1604" s="27"/>
-      <c r="U1604" s="27"/>
-      <c r="V1604" s="27"/>
-      <c r="W1604" s="27"/>
-      <c r="X1604" s="27"/>
-      <c r="Y1604" s="27"/>
-      <c r="Z1604" s="27"/>
-      <c r="AA1604" s="27"/>
-      <c r="AB1604" s="27"/>
-      <c r="AC1604" s="27"/>
-      <c r="AD1604" s="27"/>
-      <c r="AE1604" s="27"/>
-      <c r="AF1604" s="27"/>
-      <c r="AG1604" s="27"/>
-      <c r="AH1604" s="27"/>
-    </row>
-    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="27"/>
-      <c r="C1698" s="27"/>
-      <c r="D1698" s="27"/>
-      <c r="E1698" s="27"/>
-      <c r="F1698" s="27"/>
-      <c r="G1698" s="27"/>
-      <c r="H1698" s="27"/>
-      <c r="I1698" s="27"/>
-      <c r="J1698" s="27"/>
-      <c r="K1698" s="27"/>
-      <c r="L1698" s="27"/>
-      <c r="M1698" s="27"/>
-      <c r="N1698" s="27"/>
-      <c r="O1698" s="27"/>
-      <c r="P1698" s="27"/>
-      <c r="Q1698" s="27"/>
-      <c r="R1698" s="27"/>
-      <c r="S1698" s="27"/>
-      <c r="T1698" s="27"/>
-      <c r="U1698" s="27"/>
-      <c r="V1698" s="27"/>
-      <c r="W1698" s="27"/>
-      <c r="X1698" s="27"/>
-      <c r="Y1698" s="27"/>
-      <c r="Z1698" s="27"/>
-      <c r="AA1698" s="27"/>
-      <c r="AB1698" s="27"/>
-      <c r="AC1698" s="27"/>
-      <c r="AD1698" s="27"/>
-      <c r="AE1698" s="27"/>
-      <c r="AF1698" s="27"/>
-      <c r="AG1698" s="27"/>
-      <c r="AH1698" s="27"/>
-    </row>
-    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="27"/>
-      <c r="C1945" s="27"/>
-      <c r="D1945" s="27"/>
-      <c r="E1945" s="27"/>
-      <c r="F1945" s="27"/>
-      <c r="G1945" s="27"/>
-      <c r="H1945" s="27"/>
-      <c r="I1945" s="27"/>
-      <c r="J1945" s="27"/>
-      <c r="K1945" s="27"/>
-      <c r="L1945" s="27"/>
-      <c r="M1945" s="27"/>
-      <c r="N1945" s="27"/>
-      <c r="O1945" s="27"/>
-      <c r="P1945" s="27"/>
-      <c r="Q1945" s="27"/>
-      <c r="R1945" s="27"/>
-      <c r="S1945" s="27"/>
-      <c r="T1945" s="27"/>
-      <c r="U1945" s="27"/>
-      <c r="V1945" s="27"/>
-      <c r="W1945" s="27"/>
-      <c r="X1945" s="27"/>
-      <c r="Y1945" s="27"/>
-      <c r="Z1945" s="27"/>
-      <c r="AA1945" s="27"/>
-      <c r="AB1945" s="27"/>
-      <c r="AC1945" s="27"/>
-      <c r="AD1945" s="27"/>
-      <c r="AE1945" s="27"/>
-      <c r="AF1945" s="27"/>
-      <c r="AG1945" s="27"/>
-      <c r="AH1945" s="27"/>
-    </row>
-    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="27"/>
-      <c r="C2031" s="27"/>
-      <c r="D2031" s="27"/>
-      <c r="E2031" s="27"/>
-      <c r="F2031" s="27"/>
-      <c r="G2031" s="27"/>
-      <c r="H2031" s="27"/>
-      <c r="I2031" s="27"/>
-      <c r="J2031" s="27"/>
-      <c r="K2031" s="27"/>
-      <c r="L2031" s="27"/>
-      <c r="M2031" s="27"/>
-      <c r="N2031" s="27"/>
-      <c r="O2031" s="27"/>
-      <c r="P2031" s="27"/>
-      <c r="Q2031" s="27"/>
-      <c r="R2031" s="27"/>
-      <c r="S2031" s="27"/>
-      <c r="T2031" s="27"/>
-      <c r="U2031" s="27"/>
-      <c r="V2031" s="27"/>
-      <c r="W2031" s="27"/>
-      <c r="X2031" s="27"/>
-      <c r="Y2031" s="27"/>
-      <c r="Z2031" s="27"/>
-      <c r="AA2031" s="27"/>
-      <c r="AB2031" s="27"/>
-      <c r="AC2031" s="27"/>
-      <c r="AD2031" s="27"/>
-      <c r="AE2031" s="27"/>
-      <c r="AF2031" s="27"/>
-      <c r="AG2031" s="27"/>
-      <c r="AH2031" s="27"/>
-    </row>
-    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="27"/>
-      <c r="C2153" s="27"/>
-      <c r="D2153" s="27"/>
-      <c r="E2153" s="27"/>
-      <c r="F2153" s="27"/>
-      <c r="G2153" s="27"/>
-      <c r="H2153" s="27"/>
-      <c r="I2153" s="27"/>
-      <c r="J2153" s="27"/>
-      <c r="K2153" s="27"/>
-      <c r="L2153" s="27"/>
-      <c r="M2153" s="27"/>
-      <c r="N2153" s="27"/>
-      <c r="O2153" s="27"/>
-      <c r="P2153" s="27"/>
-      <c r="Q2153" s="27"/>
-      <c r="R2153" s="27"/>
-      <c r="S2153" s="27"/>
-      <c r="T2153" s="27"/>
-      <c r="U2153" s="27"/>
-      <c r="V2153" s="27"/>
-      <c r="W2153" s="27"/>
-      <c r="X2153" s="27"/>
-      <c r="Y2153" s="27"/>
-      <c r="Z2153" s="27"/>
-      <c r="AA2153" s="27"/>
-      <c r="AB2153" s="27"/>
-      <c r="AC2153" s="27"/>
-      <c r="AD2153" s="27"/>
-      <c r="AE2153" s="27"/>
-      <c r="AF2153" s="27"/>
-      <c r="AG2153" s="27"/>
-      <c r="AH2153" s="27"/>
-    </row>
-    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="27"/>
-      <c r="C2317" s="27"/>
-      <c r="D2317" s="27"/>
-      <c r="E2317" s="27"/>
-      <c r="F2317" s="27"/>
-      <c r="G2317" s="27"/>
-      <c r="H2317" s="27"/>
-      <c r="I2317" s="27"/>
-      <c r="J2317" s="27"/>
-      <c r="K2317" s="27"/>
-      <c r="L2317" s="27"/>
-      <c r="M2317" s="27"/>
-      <c r="N2317" s="27"/>
-      <c r="O2317" s="27"/>
-      <c r="P2317" s="27"/>
-      <c r="Q2317" s="27"/>
-      <c r="R2317" s="27"/>
-      <c r="S2317" s="27"/>
-      <c r="T2317" s="27"/>
-      <c r="U2317" s="27"/>
-      <c r="V2317" s="27"/>
-      <c r="W2317" s="27"/>
-      <c r="X2317" s="27"/>
-      <c r="Y2317" s="27"/>
-      <c r="Z2317" s="27"/>
-      <c r="AA2317" s="27"/>
-      <c r="AB2317" s="27"/>
-      <c r="AC2317" s="27"/>
-      <c r="AD2317" s="27"/>
-      <c r="AE2317" s="27"/>
-      <c r="AF2317" s="27"/>
-      <c r="AG2317" s="27"/>
-      <c r="AH2317" s="27"/>
-    </row>
-    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="27"/>
-      <c r="C2419" s="27"/>
-      <c r="D2419" s="27"/>
-      <c r="E2419" s="27"/>
-      <c r="F2419" s="27"/>
-      <c r="G2419" s="27"/>
-      <c r="H2419" s="27"/>
-      <c r="I2419" s="27"/>
-      <c r="J2419" s="27"/>
-      <c r="K2419" s="27"/>
-      <c r="L2419" s="27"/>
-      <c r="M2419" s="27"/>
-      <c r="N2419" s="27"/>
-      <c r="O2419" s="27"/>
-      <c r="P2419" s="27"/>
-      <c r="Q2419" s="27"/>
-      <c r="R2419" s="27"/>
-      <c r="S2419" s="27"/>
-      <c r="T2419" s="27"/>
-      <c r="U2419" s="27"/>
-      <c r="V2419" s="27"/>
-      <c r="W2419" s="27"/>
-      <c r="X2419" s="27"/>
-      <c r="Y2419" s="27"/>
-      <c r="Z2419" s="27"/>
-      <c r="AA2419" s="27"/>
-      <c r="AB2419" s="27"/>
-      <c r="AC2419" s="27"/>
-      <c r="AD2419" s="27"/>
-      <c r="AE2419" s="27"/>
-      <c r="AF2419" s="27"/>
-      <c r="AG2419" s="27"/>
-      <c r="AH2419" s="27"/>
-    </row>
-    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="27"/>
-      <c r="C2509" s="27"/>
-      <c r="D2509" s="27"/>
-      <c r="E2509" s="27"/>
-      <c r="F2509" s="27"/>
-      <c r="G2509" s="27"/>
-      <c r="H2509" s="27"/>
-      <c r="I2509" s="27"/>
-      <c r="J2509" s="27"/>
-      <c r="K2509" s="27"/>
-      <c r="L2509" s="27"/>
-      <c r="M2509" s="27"/>
-      <c r="N2509" s="27"/>
-      <c r="O2509" s="27"/>
-      <c r="P2509" s="27"/>
-      <c r="Q2509" s="27"/>
-      <c r="R2509" s="27"/>
-      <c r="S2509" s="27"/>
-      <c r="T2509" s="27"/>
-      <c r="U2509" s="27"/>
-      <c r="V2509" s="27"/>
-      <c r="W2509" s="27"/>
-      <c r="X2509" s="27"/>
-      <c r="Y2509" s="27"/>
-      <c r="Z2509" s="27"/>
-      <c r="AA2509" s="27"/>
-      <c r="AB2509" s="27"/>
-      <c r="AC2509" s="27"/>
-      <c r="AD2509" s="27"/>
-      <c r="AE2509" s="27"/>
-      <c r="AF2509" s="27"/>
-      <c r="AG2509" s="27"/>
-      <c r="AH2509" s="27"/>
-    </row>
-    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="27"/>
-      <c r="C2598" s="27"/>
-      <c r="D2598" s="27"/>
-      <c r="E2598" s="27"/>
-      <c r="F2598" s="27"/>
-      <c r="G2598" s="27"/>
-      <c r="H2598" s="27"/>
-      <c r="I2598" s="27"/>
-      <c r="J2598" s="27"/>
-      <c r="K2598" s="27"/>
-      <c r="L2598" s="27"/>
-      <c r="M2598" s="27"/>
-      <c r="N2598" s="27"/>
-      <c r="O2598" s="27"/>
-      <c r="P2598" s="27"/>
-      <c r="Q2598" s="27"/>
-      <c r="R2598" s="27"/>
-      <c r="S2598" s="27"/>
-      <c r="T2598" s="27"/>
-      <c r="U2598" s="27"/>
-      <c r="V2598" s="27"/>
-      <c r="W2598" s="27"/>
-      <c r="X2598" s="27"/>
-      <c r="Y2598" s="27"/>
-      <c r="Z2598" s="27"/>
-      <c r="AA2598" s="27"/>
-      <c r="AB2598" s="27"/>
-      <c r="AC2598" s="27"/>
-      <c r="AD2598" s="27"/>
-      <c r="AE2598" s="27"/>
-      <c r="AF2598" s="27"/>
-      <c r="AG2598" s="27"/>
-      <c r="AH2598" s="27"/>
-    </row>
-    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="27"/>
-      <c r="C2719" s="27"/>
-      <c r="D2719" s="27"/>
-      <c r="E2719" s="27"/>
-      <c r="F2719" s="27"/>
-      <c r="G2719" s="27"/>
-      <c r="H2719" s="27"/>
-      <c r="I2719" s="27"/>
-      <c r="J2719" s="27"/>
-      <c r="K2719" s="27"/>
-      <c r="L2719" s="27"/>
-      <c r="M2719" s="27"/>
-      <c r="N2719" s="27"/>
-      <c r="O2719" s="27"/>
-      <c r="P2719" s="27"/>
-      <c r="Q2719" s="27"/>
-      <c r="R2719" s="27"/>
-      <c r="S2719" s="27"/>
-      <c r="T2719" s="27"/>
-      <c r="U2719" s="27"/>
-      <c r="V2719" s="27"/>
-      <c r="W2719" s="27"/>
-      <c r="X2719" s="27"/>
-      <c r="Y2719" s="27"/>
-      <c r="Z2719" s="27"/>
-      <c r="AA2719" s="27"/>
-      <c r="AB2719" s="27"/>
-      <c r="AC2719" s="27"/>
-      <c r="AD2719" s="27"/>
-      <c r="AE2719" s="27"/>
-      <c r="AF2719" s="27"/>
-      <c r="AG2719" s="27"/>
-      <c r="AH2719" s="27"/>
-    </row>
-    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="27"/>
-      <c r="C2837" s="27"/>
-      <c r="D2837" s="27"/>
-      <c r="E2837" s="27"/>
-      <c r="F2837" s="27"/>
-      <c r="G2837" s="27"/>
-      <c r="H2837" s="27"/>
-      <c r="I2837" s="27"/>
-      <c r="J2837" s="27"/>
-      <c r="K2837" s="27"/>
-      <c r="L2837" s="27"/>
-      <c r="M2837" s="27"/>
-      <c r="N2837" s="27"/>
-      <c r="O2837" s="27"/>
-      <c r="P2837" s="27"/>
-      <c r="Q2837" s="27"/>
-      <c r="R2837" s="27"/>
-      <c r="S2837" s="27"/>
-      <c r="T2837" s="27"/>
-      <c r="U2837" s="27"/>
-      <c r="V2837" s="27"/>
-      <c r="W2837" s="27"/>
-      <c r="X2837" s="27"/>
-      <c r="Y2837" s="27"/>
-      <c r="Z2837" s="27"/>
-      <c r="AA2837" s="27"/>
-      <c r="AB2837" s="27"/>
-      <c r="AC2837" s="27"/>
-      <c r="AD2837" s="27"/>
-      <c r="AE2837" s="27"/>
-      <c r="AF2837" s="27"/>
-      <c r="AG2837" s="27"/>
-      <c r="AH2837" s="27"/>
+    <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+      <c r="V112" s="29"/>
+      <c r="W112" s="29"/>
+      <c r="X112" s="29"/>
+      <c r="Y112" s="29"/>
+      <c r="Z112" s="29"/>
+      <c r="AA112" s="29"/>
+      <c r="AB112" s="29"/>
+      <c r="AC112" s="29"/>
+      <c r="AD112" s="29"/>
+      <c r="AE112" s="29"/>
+      <c r="AF112" s="29"/>
+      <c r="AG112" s="29"/>
+      <c r="AH112" s="29"/>
+    </row>
+    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="29"/>
+      <c r="C308" s="29"/>
+      <c r="D308" s="29"/>
+      <c r="E308" s="29"/>
+      <c r="F308" s="29"/>
+      <c r="G308" s="29"/>
+      <c r="H308" s="29"/>
+      <c r="I308" s="29"/>
+      <c r="J308" s="29"/>
+      <c r="K308" s="29"/>
+      <c r="L308" s="29"/>
+      <c r="M308" s="29"/>
+      <c r="N308" s="29"/>
+      <c r="O308" s="29"/>
+      <c r="P308" s="29"/>
+      <c r="Q308" s="29"/>
+      <c r="R308" s="29"/>
+      <c r="S308" s="29"/>
+      <c r="T308" s="29"/>
+      <c r="U308" s="29"/>
+      <c r="V308" s="29"/>
+      <c r="W308" s="29"/>
+      <c r="X308" s="29"/>
+      <c r="Y308" s="29"/>
+      <c r="Z308" s="29"/>
+      <c r="AA308" s="29"/>
+      <c r="AB308" s="29"/>
+      <c r="AC308" s="29"/>
+      <c r="AD308" s="29"/>
+      <c r="AE308" s="29"/>
+      <c r="AF308" s="29"/>
+      <c r="AG308" s="29"/>
+      <c r="AH308" s="29"/>
+    </row>
+    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B511" s="29"/>
+      <c r="C511" s="29"/>
+      <c r="D511" s="29"/>
+      <c r="E511" s="29"/>
+      <c r="F511" s="29"/>
+      <c r="G511" s="29"/>
+      <c r="H511" s="29"/>
+      <c r="I511" s="29"/>
+      <c r="J511" s="29"/>
+      <c r="K511" s="29"/>
+      <c r="L511" s="29"/>
+      <c r="M511" s="29"/>
+      <c r="N511" s="29"/>
+      <c r="O511" s="29"/>
+      <c r="P511" s="29"/>
+      <c r="Q511" s="29"/>
+      <c r="R511" s="29"/>
+      <c r="S511" s="29"/>
+      <c r="T511" s="29"/>
+      <c r="U511" s="29"/>
+      <c r="V511" s="29"/>
+      <c r="W511" s="29"/>
+      <c r="X511" s="29"/>
+      <c r="Y511" s="29"/>
+      <c r="Z511" s="29"/>
+      <c r="AA511" s="29"/>
+      <c r="AB511" s="29"/>
+      <c r="AC511" s="29"/>
+      <c r="AD511" s="29"/>
+      <c r="AE511" s="29"/>
+      <c r="AF511" s="29"/>
+      <c r="AG511" s="29"/>
+      <c r="AH511" s="29"/>
+    </row>
+    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B712" s="29"/>
+      <c r="C712" s="29"/>
+      <c r="D712" s="29"/>
+      <c r="E712" s="29"/>
+      <c r="F712" s="29"/>
+      <c r="G712" s="29"/>
+      <c r="H712" s="29"/>
+      <c r="I712" s="29"/>
+      <c r="J712" s="29"/>
+      <c r="K712" s="29"/>
+      <c r="L712" s="29"/>
+      <c r="M712" s="29"/>
+      <c r="N712" s="29"/>
+      <c r="O712" s="29"/>
+      <c r="P712" s="29"/>
+      <c r="Q712" s="29"/>
+      <c r="R712" s="29"/>
+      <c r="S712" s="29"/>
+      <c r="T712" s="29"/>
+      <c r="U712" s="29"/>
+      <c r="V712" s="29"/>
+      <c r="W712" s="29"/>
+      <c r="X712" s="29"/>
+      <c r="Y712" s="29"/>
+      <c r="Z712" s="29"/>
+      <c r="AA712" s="29"/>
+      <c r="AB712" s="29"/>
+      <c r="AC712" s="29"/>
+      <c r="AD712" s="29"/>
+      <c r="AE712" s="29"/>
+      <c r="AF712" s="29"/>
+      <c r="AG712" s="29"/>
+      <c r="AH712" s="29"/>
+    </row>
+    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B887" s="29"/>
+      <c r="C887" s="29"/>
+      <c r="D887" s="29"/>
+      <c r="E887" s="29"/>
+      <c r="F887" s="29"/>
+      <c r="G887" s="29"/>
+      <c r="H887" s="29"/>
+      <c r="I887" s="29"/>
+      <c r="J887" s="29"/>
+      <c r="K887" s="29"/>
+      <c r="L887" s="29"/>
+      <c r="M887" s="29"/>
+      <c r="N887" s="29"/>
+      <c r="O887" s="29"/>
+      <c r="P887" s="29"/>
+      <c r="Q887" s="29"/>
+      <c r="R887" s="29"/>
+      <c r="S887" s="29"/>
+      <c r="T887" s="29"/>
+      <c r="U887" s="29"/>
+      <c r="V887" s="29"/>
+      <c r="W887" s="29"/>
+      <c r="X887" s="29"/>
+      <c r="Y887" s="29"/>
+      <c r="Z887" s="29"/>
+      <c r="AA887" s="29"/>
+      <c r="AB887" s="29"/>
+      <c r="AC887" s="29"/>
+      <c r="AD887" s="29"/>
+      <c r="AE887" s="29"/>
+      <c r="AF887" s="29"/>
+      <c r="AG887" s="29"/>
+      <c r="AH887" s="29"/>
+    </row>
+    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1100" s="29"/>
+      <c r="C1100" s="29"/>
+      <c r="D1100" s="29"/>
+      <c r="E1100" s="29"/>
+      <c r="F1100" s="29"/>
+      <c r="G1100" s="29"/>
+      <c r="H1100" s="29"/>
+      <c r="I1100" s="29"/>
+      <c r="J1100" s="29"/>
+      <c r="K1100" s="29"/>
+      <c r="L1100" s="29"/>
+      <c r="M1100" s="29"/>
+      <c r="N1100" s="29"/>
+      <c r="O1100" s="29"/>
+      <c r="P1100" s="29"/>
+      <c r="Q1100" s="29"/>
+      <c r="R1100" s="29"/>
+      <c r="S1100" s="29"/>
+      <c r="T1100" s="29"/>
+      <c r="U1100" s="29"/>
+      <c r="V1100" s="29"/>
+      <c r="W1100" s="29"/>
+      <c r="X1100" s="29"/>
+      <c r="Y1100" s="29"/>
+      <c r="Z1100" s="29"/>
+      <c r="AA1100" s="29"/>
+      <c r="AB1100" s="29"/>
+      <c r="AC1100" s="29"/>
+      <c r="AD1100" s="29"/>
+      <c r="AE1100" s="29"/>
+      <c r="AF1100" s="29"/>
+      <c r="AG1100" s="29"/>
+      <c r="AH1100" s="29"/>
+    </row>
+    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1227" s="29"/>
+      <c r="C1227" s="29"/>
+      <c r="D1227" s="29"/>
+      <c r="E1227" s="29"/>
+      <c r="F1227" s="29"/>
+      <c r="G1227" s="29"/>
+      <c r="H1227" s="29"/>
+      <c r="I1227" s="29"/>
+      <c r="J1227" s="29"/>
+      <c r="K1227" s="29"/>
+      <c r="L1227" s="29"/>
+      <c r="M1227" s="29"/>
+      <c r="N1227" s="29"/>
+      <c r="O1227" s="29"/>
+      <c r="P1227" s="29"/>
+      <c r="Q1227" s="29"/>
+      <c r="R1227" s="29"/>
+      <c r="S1227" s="29"/>
+      <c r="T1227" s="29"/>
+      <c r="U1227" s="29"/>
+      <c r="V1227" s="29"/>
+      <c r="W1227" s="29"/>
+      <c r="X1227" s="29"/>
+      <c r="Y1227" s="29"/>
+      <c r="Z1227" s="29"/>
+      <c r="AA1227" s="29"/>
+      <c r="AB1227" s="29"/>
+      <c r="AC1227" s="29"/>
+      <c r="AD1227" s="29"/>
+      <c r="AE1227" s="29"/>
+      <c r="AF1227" s="29"/>
+      <c r="AG1227" s="29"/>
+      <c r="AH1227" s="29"/>
+    </row>
+    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1390" s="29"/>
+      <c r="C1390" s="29"/>
+      <c r="D1390" s="29"/>
+      <c r="E1390" s="29"/>
+      <c r="F1390" s="29"/>
+      <c r="G1390" s="29"/>
+      <c r="H1390" s="29"/>
+      <c r="I1390" s="29"/>
+      <c r="J1390" s="29"/>
+      <c r="K1390" s="29"/>
+      <c r="L1390" s="29"/>
+      <c r="M1390" s="29"/>
+      <c r="N1390" s="29"/>
+      <c r="O1390" s="29"/>
+      <c r="P1390" s="29"/>
+      <c r="Q1390" s="29"/>
+      <c r="R1390" s="29"/>
+      <c r="S1390" s="29"/>
+      <c r="T1390" s="29"/>
+      <c r="U1390" s="29"/>
+      <c r="V1390" s="29"/>
+      <c r="W1390" s="29"/>
+      <c r="X1390" s="29"/>
+      <c r="Y1390" s="29"/>
+      <c r="Z1390" s="29"/>
+      <c r="AA1390" s="29"/>
+      <c r="AB1390" s="29"/>
+      <c r="AC1390" s="29"/>
+      <c r="AD1390" s="29"/>
+      <c r="AE1390" s="29"/>
+      <c r="AF1390" s="29"/>
+      <c r="AG1390" s="29"/>
+      <c r="AH1390" s="29"/>
+    </row>
+    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1502" s="29"/>
+      <c r="C1502" s="29"/>
+      <c r="D1502" s="29"/>
+      <c r="E1502" s="29"/>
+      <c r="F1502" s="29"/>
+      <c r="G1502" s="29"/>
+      <c r="H1502" s="29"/>
+      <c r="I1502" s="29"/>
+      <c r="J1502" s="29"/>
+      <c r="K1502" s="29"/>
+      <c r="L1502" s="29"/>
+      <c r="M1502" s="29"/>
+      <c r="N1502" s="29"/>
+      <c r="O1502" s="29"/>
+      <c r="P1502" s="29"/>
+      <c r="Q1502" s="29"/>
+      <c r="R1502" s="29"/>
+      <c r="S1502" s="29"/>
+      <c r="T1502" s="29"/>
+      <c r="U1502" s="29"/>
+      <c r="V1502" s="29"/>
+      <c r="W1502" s="29"/>
+      <c r="X1502" s="29"/>
+      <c r="Y1502" s="29"/>
+      <c r="Z1502" s="29"/>
+      <c r="AA1502" s="29"/>
+      <c r="AB1502" s="29"/>
+      <c r="AC1502" s="29"/>
+      <c r="AD1502" s="29"/>
+      <c r="AE1502" s="29"/>
+      <c r="AF1502" s="29"/>
+      <c r="AG1502" s="29"/>
+      <c r="AH1502" s="29"/>
+    </row>
+    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1604" s="29"/>
+      <c r="C1604" s="29"/>
+      <c r="D1604" s="29"/>
+      <c r="E1604" s="29"/>
+      <c r="F1604" s="29"/>
+      <c r="G1604" s="29"/>
+      <c r="H1604" s="29"/>
+      <c r="I1604" s="29"/>
+      <c r="J1604" s="29"/>
+      <c r="K1604" s="29"/>
+      <c r="L1604" s="29"/>
+      <c r="M1604" s="29"/>
+      <c r="N1604" s="29"/>
+      <c r="O1604" s="29"/>
+      <c r="P1604" s="29"/>
+      <c r="Q1604" s="29"/>
+      <c r="R1604" s="29"/>
+      <c r="S1604" s="29"/>
+      <c r="T1604" s="29"/>
+      <c r="U1604" s="29"/>
+      <c r="V1604" s="29"/>
+      <c r="W1604" s="29"/>
+      <c r="X1604" s="29"/>
+      <c r="Y1604" s="29"/>
+      <c r="Z1604" s="29"/>
+      <c r="AA1604" s="29"/>
+      <c r="AB1604" s="29"/>
+      <c r="AC1604" s="29"/>
+      <c r="AD1604" s="29"/>
+      <c r="AE1604" s="29"/>
+      <c r="AF1604" s="29"/>
+      <c r="AG1604" s="29"/>
+      <c r="AH1604" s="29"/>
+    </row>
+    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1698" s="29"/>
+      <c r="C1698" s="29"/>
+      <c r="D1698" s="29"/>
+      <c r="E1698" s="29"/>
+      <c r="F1698" s="29"/>
+      <c r="G1698" s="29"/>
+      <c r="H1698" s="29"/>
+      <c r="I1698" s="29"/>
+      <c r="J1698" s="29"/>
+      <c r="K1698" s="29"/>
+      <c r="L1698" s="29"/>
+      <c r="M1698" s="29"/>
+      <c r="N1698" s="29"/>
+      <c r="O1698" s="29"/>
+      <c r="P1698" s="29"/>
+      <c r="Q1698" s="29"/>
+      <c r="R1698" s="29"/>
+      <c r="S1698" s="29"/>
+      <c r="T1698" s="29"/>
+      <c r="U1698" s="29"/>
+      <c r="V1698" s="29"/>
+      <c r="W1698" s="29"/>
+      <c r="X1698" s="29"/>
+      <c r="Y1698" s="29"/>
+      <c r="Z1698" s="29"/>
+      <c r="AA1698" s="29"/>
+      <c r="AB1698" s="29"/>
+      <c r="AC1698" s="29"/>
+      <c r="AD1698" s="29"/>
+      <c r="AE1698" s="29"/>
+      <c r="AF1698" s="29"/>
+      <c r="AG1698" s="29"/>
+      <c r="AH1698" s="29"/>
+    </row>
+    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1945" s="29"/>
+      <c r="C1945" s="29"/>
+      <c r="D1945" s="29"/>
+      <c r="E1945" s="29"/>
+      <c r="F1945" s="29"/>
+      <c r="G1945" s="29"/>
+      <c r="H1945" s="29"/>
+      <c r="I1945" s="29"/>
+      <c r="J1945" s="29"/>
+      <c r="K1945" s="29"/>
+      <c r="L1945" s="29"/>
+      <c r="M1945" s="29"/>
+      <c r="N1945" s="29"/>
+      <c r="O1945" s="29"/>
+      <c r="P1945" s="29"/>
+      <c r="Q1945" s="29"/>
+      <c r="R1945" s="29"/>
+      <c r="S1945" s="29"/>
+      <c r="T1945" s="29"/>
+      <c r="U1945" s="29"/>
+      <c r="V1945" s="29"/>
+      <c r="W1945" s="29"/>
+      <c r="X1945" s="29"/>
+      <c r="Y1945" s="29"/>
+      <c r="Z1945" s="29"/>
+      <c r="AA1945" s="29"/>
+      <c r="AB1945" s="29"/>
+      <c r="AC1945" s="29"/>
+      <c r="AD1945" s="29"/>
+      <c r="AE1945" s="29"/>
+      <c r="AF1945" s="29"/>
+      <c r="AG1945" s="29"/>
+      <c r="AH1945" s="29"/>
+    </row>
+    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2031" s="29"/>
+      <c r="C2031" s="29"/>
+      <c r="D2031" s="29"/>
+      <c r="E2031" s="29"/>
+      <c r="F2031" s="29"/>
+      <c r="G2031" s="29"/>
+      <c r="H2031" s="29"/>
+      <c r="I2031" s="29"/>
+      <c r="J2031" s="29"/>
+      <c r="K2031" s="29"/>
+      <c r="L2031" s="29"/>
+      <c r="M2031" s="29"/>
+      <c r="N2031" s="29"/>
+      <c r="O2031" s="29"/>
+      <c r="P2031" s="29"/>
+      <c r="Q2031" s="29"/>
+      <c r="R2031" s="29"/>
+      <c r="S2031" s="29"/>
+      <c r="T2031" s="29"/>
+      <c r="U2031" s="29"/>
+      <c r="V2031" s="29"/>
+      <c r="W2031" s="29"/>
+      <c r="X2031" s="29"/>
+      <c r="Y2031" s="29"/>
+      <c r="Z2031" s="29"/>
+      <c r="AA2031" s="29"/>
+      <c r="AB2031" s="29"/>
+      <c r="AC2031" s="29"/>
+      <c r="AD2031" s="29"/>
+      <c r="AE2031" s="29"/>
+      <c r="AF2031" s="29"/>
+      <c r="AG2031" s="29"/>
+      <c r="AH2031" s="29"/>
+    </row>
+    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2153" s="29"/>
+      <c r="C2153" s="29"/>
+      <c r="D2153" s="29"/>
+      <c r="E2153" s="29"/>
+      <c r="F2153" s="29"/>
+      <c r="G2153" s="29"/>
+      <c r="H2153" s="29"/>
+      <c r="I2153" s="29"/>
+      <c r="J2153" s="29"/>
+      <c r="K2153" s="29"/>
+      <c r="L2153" s="29"/>
+      <c r="M2153" s="29"/>
+      <c r="N2153" s="29"/>
+      <c r="O2153" s="29"/>
+      <c r="P2153" s="29"/>
+      <c r="Q2153" s="29"/>
+      <c r="R2153" s="29"/>
+      <c r="S2153" s="29"/>
+      <c r="T2153" s="29"/>
+      <c r="U2153" s="29"/>
+      <c r="V2153" s="29"/>
+      <c r="W2153" s="29"/>
+      <c r="X2153" s="29"/>
+      <c r="Y2153" s="29"/>
+      <c r="Z2153" s="29"/>
+      <c r="AA2153" s="29"/>
+      <c r="AB2153" s="29"/>
+      <c r="AC2153" s="29"/>
+      <c r="AD2153" s="29"/>
+      <c r="AE2153" s="29"/>
+      <c r="AF2153" s="29"/>
+      <c r="AG2153" s="29"/>
+      <c r="AH2153" s="29"/>
+    </row>
+    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2317" s="29"/>
+      <c r="C2317" s="29"/>
+      <c r="D2317" s="29"/>
+      <c r="E2317" s="29"/>
+      <c r="F2317" s="29"/>
+      <c r="G2317" s="29"/>
+      <c r="H2317" s="29"/>
+      <c r="I2317" s="29"/>
+      <c r="J2317" s="29"/>
+      <c r="K2317" s="29"/>
+      <c r="L2317" s="29"/>
+      <c r="M2317" s="29"/>
+      <c r="N2317" s="29"/>
+      <c r="O2317" s="29"/>
+      <c r="P2317" s="29"/>
+      <c r="Q2317" s="29"/>
+      <c r="R2317" s="29"/>
+      <c r="S2317" s="29"/>
+      <c r="T2317" s="29"/>
+      <c r="U2317" s="29"/>
+      <c r="V2317" s="29"/>
+      <c r="W2317" s="29"/>
+      <c r="X2317" s="29"/>
+      <c r="Y2317" s="29"/>
+      <c r="Z2317" s="29"/>
+      <c r="AA2317" s="29"/>
+      <c r="AB2317" s="29"/>
+      <c r="AC2317" s="29"/>
+      <c r="AD2317" s="29"/>
+      <c r="AE2317" s="29"/>
+      <c r="AF2317" s="29"/>
+      <c r="AG2317" s="29"/>
+      <c r="AH2317" s="29"/>
+    </row>
+    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2419" s="29"/>
+      <c r="C2419" s="29"/>
+      <c r="D2419" s="29"/>
+      <c r="E2419" s="29"/>
+      <c r="F2419" s="29"/>
+      <c r="G2419" s="29"/>
+      <c r="H2419" s="29"/>
+      <c r="I2419" s="29"/>
+      <c r="J2419" s="29"/>
+      <c r="K2419" s="29"/>
+      <c r="L2419" s="29"/>
+      <c r="M2419" s="29"/>
+      <c r="N2419" s="29"/>
+      <c r="O2419" s="29"/>
+      <c r="P2419" s="29"/>
+      <c r="Q2419" s="29"/>
+      <c r="R2419" s="29"/>
+      <c r="S2419" s="29"/>
+      <c r="T2419" s="29"/>
+      <c r="U2419" s="29"/>
+      <c r="V2419" s="29"/>
+      <c r="W2419" s="29"/>
+      <c r="X2419" s="29"/>
+      <c r="Y2419" s="29"/>
+      <c r="Z2419" s="29"/>
+      <c r="AA2419" s="29"/>
+      <c r="AB2419" s="29"/>
+      <c r="AC2419" s="29"/>
+      <c r="AD2419" s="29"/>
+      <c r="AE2419" s="29"/>
+      <c r="AF2419" s="29"/>
+      <c r="AG2419" s="29"/>
+      <c r="AH2419" s="29"/>
+    </row>
+    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2509" s="29"/>
+      <c r="C2509" s="29"/>
+      <c r="D2509" s="29"/>
+      <c r="E2509" s="29"/>
+      <c r="F2509" s="29"/>
+      <c r="G2509" s="29"/>
+      <c r="H2509" s="29"/>
+      <c r="I2509" s="29"/>
+      <c r="J2509" s="29"/>
+      <c r="K2509" s="29"/>
+      <c r="L2509" s="29"/>
+      <c r="M2509" s="29"/>
+      <c r="N2509" s="29"/>
+      <c r="O2509" s="29"/>
+      <c r="P2509" s="29"/>
+      <c r="Q2509" s="29"/>
+      <c r="R2509" s="29"/>
+      <c r="S2509" s="29"/>
+      <c r="T2509" s="29"/>
+      <c r="U2509" s="29"/>
+      <c r="V2509" s="29"/>
+      <c r="W2509" s="29"/>
+      <c r="X2509" s="29"/>
+      <c r="Y2509" s="29"/>
+      <c r="Z2509" s="29"/>
+      <c r="AA2509" s="29"/>
+      <c r="AB2509" s="29"/>
+      <c r="AC2509" s="29"/>
+      <c r="AD2509" s="29"/>
+      <c r="AE2509" s="29"/>
+      <c r="AF2509" s="29"/>
+      <c r="AG2509" s="29"/>
+      <c r="AH2509" s="29"/>
+    </row>
+    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2598" s="29"/>
+      <c r="C2598" s="29"/>
+      <c r="D2598" s="29"/>
+      <c r="E2598" s="29"/>
+      <c r="F2598" s="29"/>
+      <c r="G2598" s="29"/>
+      <c r="H2598" s="29"/>
+      <c r="I2598" s="29"/>
+      <c r="J2598" s="29"/>
+      <c r="K2598" s="29"/>
+      <c r="L2598" s="29"/>
+      <c r="M2598" s="29"/>
+      <c r="N2598" s="29"/>
+      <c r="O2598" s="29"/>
+      <c r="P2598" s="29"/>
+      <c r="Q2598" s="29"/>
+      <c r="R2598" s="29"/>
+      <c r="S2598" s="29"/>
+      <c r="T2598" s="29"/>
+      <c r="U2598" s="29"/>
+      <c r="V2598" s="29"/>
+      <c r="W2598" s="29"/>
+      <c r="X2598" s="29"/>
+      <c r="Y2598" s="29"/>
+      <c r="Z2598" s="29"/>
+      <c r="AA2598" s="29"/>
+      <c r="AB2598" s="29"/>
+      <c r="AC2598" s="29"/>
+      <c r="AD2598" s="29"/>
+      <c r="AE2598" s="29"/>
+      <c r="AF2598" s="29"/>
+      <c r="AG2598" s="29"/>
+      <c r="AH2598" s="29"/>
+    </row>
+    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2719" s="29"/>
+      <c r="C2719" s="29"/>
+      <c r="D2719" s="29"/>
+      <c r="E2719" s="29"/>
+      <c r="F2719" s="29"/>
+      <c r="G2719" s="29"/>
+      <c r="H2719" s="29"/>
+      <c r="I2719" s="29"/>
+      <c r="J2719" s="29"/>
+      <c r="K2719" s="29"/>
+      <c r="L2719" s="29"/>
+      <c r="M2719" s="29"/>
+      <c r="N2719" s="29"/>
+      <c r="O2719" s="29"/>
+      <c r="P2719" s="29"/>
+      <c r="Q2719" s="29"/>
+      <c r="R2719" s="29"/>
+      <c r="S2719" s="29"/>
+      <c r="T2719" s="29"/>
+      <c r="U2719" s="29"/>
+      <c r="V2719" s="29"/>
+      <c r="W2719" s="29"/>
+      <c r="X2719" s="29"/>
+      <c r="Y2719" s="29"/>
+      <c r="Z2719" s="29"/>
+      <c r="AA2719" s="29"/>
+      <c r="AB2719" s="29"/>
+      <c r="AC2719" s="29"/>
+      <c r="AD2719" s="29"/>
+      <c r="AE2719" s="29"/>
+      <c r="AF2719" s="29"/>
+      <c r="AG2719" s="29"/>
+      <c r="AH2719" s="29"/>
+    </row>
+    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2837" s="29"/>
+      <c r="C2837" s="29"/>
+      <c r="D2837" s="29"/>
+      <c r="E2837" s="29"/>
+      <c r="F2837" s="29"/>
+      <c r="G2837" s="29"/>
+      <c r="H2837" s="29"/>
+      <c r="I2837" s="29"/>
+      <c r="J2837" s="29"/>
+      <c r="K2837" s="29"/>
+      <c r="L2837" s="29"/>
+      <c r="M2837" s="29"/>
+      <c r="N2837" s="29"/>
+      <c r="O2837" s="29"/>
+      <c r="P2837" s="29"/>
+      <c r="Q2837" s="29"/>
+      <c r="R2837" s="29"/>
+      <c r="S2837" s="29"/>
+      <c r="T2837" s="29"/>
+      <c r="U2837" s="29"/>
+      <c r="V2837" s="29"/>
+      <c r="W2837" s="29"/>
+      <c r="X2837" s="29"/>
+      <c r="Y2837" s="29"/>
+      <c r="Z2837" s="29"/>
+      <c r="AA2837" s="29"/>
+      <c r="AB2837" s="29"/>
+      <c r="AC2837" s="29"/>
+      <c r="AD2837" s="29"/>
+      <c r="AE2837" s="29"/>
+      <c r="AF2837" s="29"/>
+      <c r="AG2837" s="29"/>
+      <c r="AH2837" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B87:AG87"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B87:AG87"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -8484,16 +8471,18 @@
   </sheetPr>
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -8589,133 +8578,102 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4">
-        <f>'AEO Table 9'!C$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
-        <f>'AEO Table 9'!D$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <f>'AEO Table 9'!E$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
-        <f>'AEO Table 9'!F$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
-        <f>'AEO Table 9'!G$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <f>'AEO Table 9'!H$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <f>'AEO Table 9'!I$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>'AEO Table 9'!J$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f>'AEO Table 9'!K$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
-        <f>'AEO Table 9'!L$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4">
-        <f>'AEO Table 9'!M$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>'AEO Table 9'!N$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4">
-        <f>'AEO Table 9'!O$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4">
-        <f>'AEO Table 9'!P$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4">
-        <f>'AEO Table 9'!Q$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4">
-        <f>'AEO Table 9'!R$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4">
-        <f>'AEO Table 9'!S$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f>'AEO Table 9'!T$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4">
-        <f>'AEO Table 9'!U$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4">
-        <f>'AEO Table 9'!V$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4">
-        <f>'AEO Table 9'!W$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4">
-        <f>'AEO Table 9'!X$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4">
-        <f>'AEO Table 9'!Y$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4">
-        <f>'AEO Table 9'!Z$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4">
-        <f>'AEO Table 9'!AA$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4">
-        <f>'AEO Table 9'!AB$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4">
-        <f>'AEO Table 9'!AC$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4">
-        <f>'AEO Table 9'!AD$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4">
-        <f>'AEO Table 9'!AE$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4">
-        <f>'AEO Table 9'!AF$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4">
-        <f>'AEO Table 9'!AG$22*gigawatts_to_megawatts</f>
-        <v>22778.303</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4"/>
     </row>
